--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799059740561483</v>
+        <v>0.9799059740561461</v>
       </c>
       <c r="D2">
-        <v>1.00185032272603</v>
+        <v>1.001850322726029</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9829396831985308</v>
+        <v>0.9829396831985283</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037456129609982</v>
+        <v>1.037456129609981</v>
       </c>
       <c r="J2">
-        <v>1.002704766703143</v>
+        <v>1.002704766703141</v>
       </c>
       <c r="K2">
-        <v>1.013283939664998</v>
+        <v>1.013283939664995</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9946419257156872</v>
+        <v>0.9946419257156848</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9888454955838233</v>
+        <v>0.9888454955838221</v>
       </c>
       <c r="D3">
-        <v>1.008897530851741</v>
+        <v>1.00889753085174</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9924538189886549</v>
+        <v>0.9924538189886537</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.040528910308793</v>
       </c>
       <c r="J3">
-        <v>1.009644932551149</v>
+        <v>1.009644932551148</v>
       </c>
       <c r="K3">
-        <v>1.019417817991687</v>
+        <v>1.019417817991686</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.003184173953877</v>
+        <v>1.003184173953876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944084535494222</v>
+        <v>0.9944084535494209</v>
       </c>
       <c r="D4">
-        <v>1.013284393804133</v>
+        <v>1.013284393804132</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9983817777925087</v>
+        <v>0.9983817777925075</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042422904626449</v>
+        <v>1.042422904626448</v>
       </c>
       <c r="J4">
-        <v>1.013956281280274</v>
+        <v>1.013956281280273</v>
       </c>
       <c r="K4">
-        <v>1.023225088821686</v>
+        <v>1.023225088821685</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.008499772647372</v>
+        <v>1.008499772647371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9966978041974967</v>
+        <v>0.9966978041974973</v>
       </c>
       <c r="D5">
         <v>1.015089937665298</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.000823117417811</v>
@@ -553,13 +553,13 @@
         <v>1.043197904474591</v>
       </c>
       <c r="J5">
-        <v>1.01572869918795</v>
+        <v>1.015728699187951</v>
       </c>
       <c r="K5">
-        <v>1.024789467638582</v>
+        <v>1.024789467638583</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.010687267195764</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970794045968054</v>
+        <v>0.9970794045968052</v>
       </c>
       <c r="D6">
         <v>1.015390902067675</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
         <v>1.001230156655629</v>
@@ -591,13 +591,13 @@
         <v>1.043326821343648</v>
       </c>
       <c r="J6">
-        <v>1.016024023793834</v>
+        <v>1.016024023793833</v>
       </c>
       <c r="K6">
         <v>1.02505007939835</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
         <v>1.011051885527203</v>
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944392331453049</v>
+        <v>0.9944392331453061</v>
       </c>
       <c r="D7">
-        <v>1.013308668184525</v>
+        <v>1.013308668184526</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9984145937843432</v>
+        <v>0.9984145937843441</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042433341990339</v>
+        <v>1.04243334199034</v>
       </c>
       <c r="J7">
-        <v>1.013980118308977</v>
+        <v>1.013980118308978</v>
       </c>
       <c r="K7">
-        <v>1.023246131226447</v>
+        <v>1.023246131226448</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.008529183086987</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9829753651411521</v>
+        <v>0.9829753651411508</v>
       </c>
       <c r="D8">
-        <v>1.004269573863947</v>
+        <v>1.004269573863946</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9862047897407753</v>
+        <v>0.986204789740774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03851497171188</v>
+        <v>1.038514971711879</v>
       </c>
       <c r="J8">
-        <v>1.005089212022862</v>
+        <v>1.005089212022861</v>
       </c>
       <c r="K8">
-        <v>1.015392019996839</v>
+        <v>1.015392019996838</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9975749262854312</v>
+        <v>0.9975749262854298</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9608852041719618</v>
+        <v>0.9608852041719615</v>
       </c>
       <c r="D9">
-        <v>0.9868724024894445</v>
+        <v>0.9868724024894442</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9627389419913391</v>
+        <v>0.9627389419913388</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030818581387034</v>
+        <v>1.030818581387033</v>
       </c>
       <c r="J9">
-        <v>0.9878990600801868</v>
+        <v>0.9878990600801865</v>
       </c>
       <c r="K9">
-        <v>1.000182118178158</v>
+        <v>1.000182118178157</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9764669384808259</v>
+        <v>0.9764669384808256</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9445669505629825</v>
+        <v>0.9445669505629827</v>
       </c>
       <c r="D10">
-        <v>0.9740490904599741</v>
+        <v>0.9740490904599743</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9454471411058417</v>
+        <v>0.9454471411058427</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.025039907013904</v>
       </c>
       <c r="J10">
-        <v>0.975166650663245</v>
+        <v>0.9751666506632453</v>
       </c>
       <c r="K10">
-        <v>0.9889032559987093</v>
+        <v>0.9889032559987095</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9608765434882901</v>
+        <v>0.9608765434882908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9370320664224525</v>
+        <v>0.9370320664224511</v>
       </c>
       <c r="D11">
-        <v>0.9681385405484654</v>
+        <v>0.9681385405484636</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9374729224572196</v>
+        <v>0.9374729224572181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022351305398963</v>
+        <v>1.022351305398962</v>
       </c>
       <c r="J11">
-        <v>0.9692811030762641</v>
+        <v>0.9692811030762625</v>
       </c>
       <c r="K11">
-        <v>0.9836874142061373</v>
+        <v>0.9836874142061356</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9536788787708368</v>
+        <v>0.9536788787708352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9341530816687621</v>
+        <v>0.9341530816687623</v>
       </c>
       <c r="D12">
-        <v>0.9658821741958246</v>
+        <v>0.965882174195825</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9344276040199296</v>
+        <v>0.9344276040199303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021321160847712</v>
+        <v>1.021321160847713</v>
       </c>
       <c r="J12">
-        <v>0.9670315157329521</v>
+        <v>0.9670315157329523</v>
       </c>
       <c r="K12">
-        <v>0.9816935680682884</v>
+        <v>0.9816935680682889</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9509289695588587</v>
+        <v>0.9509289695588593</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.934774440807933</v>
+        <v>0.9347744408079309</v>
       </c>
       <c r="D13">
-        <v>0.9663690599533112</v>
+        <v>0.9663690599533097</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9350847933636448</v>
+        <v>0.9350847933636431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021543618278671</v>
+        <v>1.02154361827867</v>
       </c>
       <c r="J13">
-        <v>0.9675170673930046</v>
+        <v>0.967517067393003</v>
       </c>
       <c r="K13">
-        <v>0.9821239293945948</v>
+        <v>0.9821239293945935</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9515224595690317</v>
+        <v>0.95152245956903</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9367957879979997</v>
+        <v>0.9367957879980017</v>
       </c>
       <c r="D14">
-        <v>0.9679533179201201</v>
+        <v>0.9679533179201215</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9372229621083576</v>
+        <v>0.9372229621083592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022266818070282</v>
+        <v>1.022266818070283</v>
       </c>
       <c r="J14">
-        <v>0.9690964942865894</v>
+        <v>0.9690964942865909</v>
       </c>
       <c r="K14">
-        <v>0.9835237965714246</v>
+        <v>0.983523796571426</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.95345318860892</v>
+        <v>0.9534531886089216</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9380302553295085</v>
+        <v>0.93803025532951</v>
       </c>
       <c r="D15">
-        <v>0.9689211202898069</v>
+        <v>0.9689211202898079</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.93852897436576</v>
+        <v>0.9385289743657614</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022708118381329</v>
       </c>
       <c r="J15">
-        <v>0.9700609758627176</v>
+        <v>0.9700609758627187</v>
       </c>
       <c r="K15">
-        <v>0.9843786017342441</v>
+        <v>0.9843786017342451</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9546323457891007</v>
+        <v>0.9546323457891022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.945056347906138</v>
+        <v>0.9450563479061397</v>
       </c>
       <c r="D16">
-        <v>0.9744332338966001</v>
+        <v>0.9744332338966014</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9459652827883138</v>
+        <v>0.9459652827883157</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025214132248213</v>
+        <v>1.025214132248214</v>
       </c>
       <c r="J16">
-        <v>0.9755488041047357</v>
+        <v>0.975548804104737</v>
       </c>
       <c r="K16">
-        <v>0.9892418874259934</v>
+        <v>0.9892418874259947</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9613440660360526</v>
+        <v>0.9613440660360546</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9493317847859513</v>
+        <v>0.9493317847859497</v>
       </c>
       <c r="D17">
-        <v>0.9777903776927002</v>
+        <v>0.9777903776926987</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9504929720178147</v>
+        <v>0.9504929720178131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026733937577668</v>
+        <v>1.026733937577667</v>
       </c>
       <c r="J17">
-        <v>0.9788866463791136</v>
+        <v>0.9788866463791119</v>
       </c>
       <c r="K17">
-        <v>0.9921993603507028</v>
+        <v>0.9921993603507014</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9654285345133602</v>
+        <v>0.9654285345133587</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517810754576614</v>
+        <v>0.9517810754576657</v>
       </c>
       <c r="D18">
-        <v>0.979714553078367</v>
+        <v>0.9797145530783713</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.953087718199142</v>
+        <v>0.9530877181991465</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027602696744854</v>
+        <v>1.027602696744856</v>
       </c>
       <c r="J18">
-        <v>0.9807982055005281</v>
+        <v>0.9807982055005324</v>
       </c>
       <c r="K18">
-        <v>0.9938928743364297</v>
+        <v>0.9938928743364338</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9677685253243227</v>
+        <v>0.967768525324327</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526089374641278</v>
+        <v>0.9526089374641284</v>
       </c>
       <c r="D19">
-        <v>0.9803650767128758</v>
+        <v>0.9803650767128768</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.9539649048009351</v>
+        <v>0.9539649048009362</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027896010708308</v>
+        <v>1.027896010708309</v>
       </c>
       <c r="J19">
-        <v>0.9814442063682345</v>
+        <v>0.9814442063682354</v>
       </c>
       <c r="K19">
-        <v>0.9944651498499404</v>
+        <v>0.9944651498499414</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9685594594958002</v>
+        <v>0.9685594594958012</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9488777378582066</v>
+        <v>0.9488777378582081</v>
       </c>
       <c r="D20">
-        <v>0.977433750844776</v>
+        <v>0.9774337508447772</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9500120375769785</v>
+        <v>0.9500120375769798</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026572732408926</v>
+        <v>1.026572732408927</v>
       </c>
       <c r="J20">
-        <v>0.9785322331496272</v>
+        <v>0.9785322331496286</v>
       </c>
       <c r="K20">
-        <v>0.9918853561513649</v>
+        <v>0.9918853561513659</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9649947573156813</v>
+        <v>0.9649947573156825</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9362028535588819</v>
+        <v>0.9362028535588831</v>
       </c>
       <c r="D21">
-        <v>0.9674885398715466</v>
+        <v>0.9674885398715476</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.936595717778285</v>
+        <v>0.9365957177782862</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022054754126454</v>
+        <v>1.022054754126455</v>
       </c>
       <c r="J21">
-        <v>0.9686332113292645</v>
+        <v>0.9686332113292657</v>
       </c>
       <c r="K21">
-        <v>0.9831131883094614</v>
+        <v>0.9831131883094624</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9528868290054243</v>
+        <v>0.9528868290054252</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9277632752914928</v>
+        <v>0.9277632752914932</v>
       </c>
       <c r="D22">
-        <v>0.9608784189765694</v>
+        <v>0.9608784189765697</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.927671455666482</v>
+        <v>0.9276714556664825</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01902972375968</v>
       </c>
       <c r="J22">
-        <v>0.9620373819558583</v>
+        <v>0.9620373819558585</v>
       </c>
       <c r="K22">
-        <v>0.9772668682512893</v>
+        <v>0.9772668682512894</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9448261367904152</v>
+        <v>0.9448261367904156</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9322856469467626</v>
+        <v>0.9322856469467625</v>
       </c>
       <c r="D23">
-        <v>0.9644192108705888</v>
+        <v>0.9644192108705885</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9324527091077697</v>
+        <v>0.9324527091077692</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020652183055491</v>
       </c>
       <c r="J23">
-        <v>0.9655721357377176</v>
+        <v>0.9655721357377174</v>
       </c>
       <c r="K23">
-        <v>0.9804000424450401</v>
+        <v>0.9804000424450399</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9491453312032924</v>
+        <v>0.9491453312032923</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9490830389197255</v>
+        <v>0.9490830389197277</v>
       </c>
       <c r="D24">
-        <v>0.977594999678851</v>
+        <v>0.9775949996788531</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.950229493102246</v>
+        <v>0.9502294931022485</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026645628582125</v>
       </c>
       <c r="J24">
-        <v>0.9786924859155699</v>
+        <v>0.978692485915572</v>
       </c>
       <c r="K24">
-        <v>0.9920273380858299</v>
+        <v>0.9920273380858319</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>0.9651908929408876</v>
+        <v>0.9651908929408896</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9668498144845078</v>
+        <v>0.9668498144845064</v>
       </c>
       <c r="D25">
-        <v>0.9915662101288476</v>
+        <v>0.9915662101288463</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9690678694622517</v>
+        <v>0.9690678694622502</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032912859717364</v>
+        <v>1.032912859717363</v>
       </c>
       <c r="J25">
-        <v>0.9925467406052431</v>
+        <v>0.9925467406052416</v>
       </c>
       <c r="K25">
-        <v>1.004296876077758</v>
+        <v>1.004296876077757</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9821661286395459</v>
+        <v>0.9821661286395443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799059740561461</v>
+        <v>0.9799059740561483</v>
       </c>
       <c r="D2">
-        <v>1.001850322726029</v>
+        <v>1.00185032272603</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9829396831985283</v>
+        <v>0.9829396831985308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037456129609981</v>
+        <v>1.037456129609982</v>
       </c>
       <c r="J2">
-        <v>1.002704766703141</v>
+        <v>1.002704766703143</v>
       </c>
       <c r="K2">
-        <v>1.013283939664995</v>
+        <v>1.013283939664998</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9946419257156848</v>
+        <v>0.9946419257156872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9888454955838221</v>
+        <v>0.9888454955838233</v>
       </c>
       <c r="D3">
-        <v>1.00889753085174</v>
+        <v>1.008897530851741</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9924538189886537</v>
+        <v>0.9924538189886549</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.040528910308793</v>
       </c>
       <c r="J3">
-        <v>1.009644932551148</v>
+        <v>1.009644932551149</v>
       </c>
       <c r="K3">
-        <v>1.019417817991686</v>
+        <v>1.019417817991687</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.003184173953876</v>
+        <v>1.003184173953877</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944084535494209</v>
+        <v>0.9944084535494222</v>
       </c>
       <c r="D4">
-        <v>1.013284393804132</v>
+        <v>1.013284393804133</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9983817777925075</v>
+        <v>0.9983817777925087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042422904626448</v>
+        <v>1.042422904626449</v>
       </c>
       <c r="J4">
-        <v>1.013956281280273</v>
+        <v>1.013956281280274</v>
       </c>
       <c r="K4">
-        <v>1.023225088821685</v>
+        <v>1.023225088821686</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.008499772647371</v>
+        <v>1.008499772647372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9966978041974973</v>
+        <v>0.9966978041974967</v>
       </c>
       <c r="D5">
         <v>1.015089937665298</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.000823117417811</v>
@@ -553,13 +553,13 @@
         <v>1.043197904474591</v>
       </c>
       <c r="J5">
-        <v>1.015728699187951</v>
+        <v>1.01572869918795</v>
       </c>
       <c r="K5">
-        <v>1.024789467638583</v>
+        <v>1.024789467638582</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.010687267195764</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970794045968052</v>
+        <v>0.9970794045968054</v>
       </c>
       <c r="D6">
         <v>1.015390902067675</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
         <v>1.001230156655629</v>
@@ -591,13 +591,13 @@
         <v>1.043326821343648</v>
       </c>
       <c r="J6">
-        <v>1.016024023793833</v>
+        <v>1.016024023793834</v>
       </c>
       <c r="K6">
         <v>1.02505007939835</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
         <v>1.011051885527203</v>
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944392331453061</v>
+        <v>0.9944392331453049</v>
       </c>
       <c r="D7">
-        <v>1.013308668184526</v>
+        <v>1.013308668184525</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9984145937843441</v>
+        <v>0.9984145937843432</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04243334199034</v>
+        <v>1.042433341990339</v>
       </c>
       <c r="J7">
-        <v>1.013980118308978</v>
+        <v>1.013980118308977</v>
       </c>
       <c r="K7">
-        <v>1.023246131226448</v>
+        <v>1.023246131226447</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.008529183086987</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9829753651411508</v>
+        <v>0.9829753651411521</v>
       </c>
       <c r="D8">
-        <v>1.004269573863946</v>
+        <v>1.004269573863947</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.986204789740774</v>
+        <v>0.9862047897407753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038514971711879</v>
+        <v>1.03851497171188</v>
       </c>
       <c r="J8">
-        <v>1.005089212022861</v>
+        <v>1.005089212022862</v>
       </c>
       <c r="K8">
-        <v>1.015392019996838</v>
+        <v>1.015392019996839</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9975749262854298</v>
+        <v>0.9975749262854312</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9608852041719615</v>
+        <v>0.9608852041719618</v>
       </c>
       <c r="D9">
-        <v>0.9868724024894442</v>
+        <v>0.9868724024894445</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9627389419913388</v>
+        <v>0.9627389419913391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030818581387033</v>
+        <v>1.030818581387034</v>
       </c>
       <c r="J9">
-        <v>0.9878990600801865</v>
+        <v>0.9878990600801868</v>
       </c>
       <c r="K9">
-        <v>1.000182118178157</v>
+        <v>1.000182118178158</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9764669384808256</v>
+        <v>0.9764669384808259</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9445669505629827</v>
+        <v>0.9445669505629825</v>
       </c>
       <c r="D10">
-        <v>0.9740490904599743</v>
+        <v>0.9740490904599741</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9454471411058427</v>
+        <v>0.9454471411058417</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.025039907013904</v>
       </c>
       <c r="J10">
-        <v>0.9751666506632453</v>
+        <v>0.975166650663245</v>
       </c>
       <c r="K10">
-        <v>0.9889032559987095</v>
+        <v>0.9889032559987093</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9608765434882908</v>
+        <v>0.9608765434882901</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9370320664224511</v>
+        <v>0.9370320664224525</v>
       </c>
       <c r="D11">
-        <v>0.9681385405484636</v>
+        <v>0.9681385405484654</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9374729224572181</v>
+        <v>0.9374729224572196</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022351305398962</v>
+        <v>1.022351305398963</v>
       </c>
       <c r="J11">
-        <v>0.9692811030762625</v>
+        <v>0.9692811030762641</v>
       </c>
       <c r="K11">
-        <v>0.9836874142061356</v>
+        <v>0.9836874142061373</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9536788787708352</v>
+        <v>0.9536788787708368</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9341530816687623</v>
+        <v>0.9341530816687621</v>
       </c>
       <c r="D12">
-        <v>0.965882174195825</v>
+        <v>0.9658821741958246</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9344276040199303</v>
+        <v>0.9344276040199296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021321160847713</v>
+        <v>1.021321160847712</v>
       </c>
       <c r="J12">
-        <v>0.9670315157329523</v>
+        <v>0.9670315157329521</v>
       </c>
       <c r="K12">
-        <v>0.9816935680682889</v>
+        <v>0.9816935680682884</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9509289695588593</v>
+        <v>0.9509289695588587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9347744408079309</v>
+        <v>0.934774440807933</v>
       </c>
       <c r="D13">
-        <v>0.9663690599533097</v>
+        <v>0.9663690599533112</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9350847933636431</v>
+        <v>0.9350847933636448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02154361827867</v>
+        <v>1.021543618278671</v>
       </c>
       <c r="J13">
-        <v>0.967517067393003</v>
+        <v>0.9675170673930046</v>
       </c>
       <c r="K13">
-        <v>0.9821239293945935</v>
+        <v>0.9821239293945948</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.95152245956903</v>
+        <v>0.9515224595690317</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9367957879980017</v>
+        <v>0.9367957879979997</v>
       </c>
       <c r="D14">
-        <v>0.9679533179201215</v>
+        <v>0.9679533179201201</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9372229621083592</v>
+        <v>0.9372229621083576</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022266818070283</v>
+        <v>1.022266818070282</v>
       </c>
       <c r="J14">
-        <v>0.9690964942865909</v>
+        <v>0.9690964942865894</v>
       </c>
       <c r="K14">
-        <v>0.983523796571426</v>
+        <v>0.9835237965714246</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9534531886089216</v>
+        <v>0.95345318860892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.93803025532951</v>
+        <v>0.9380302553295085</v>
       </c>
       <c r="D15">
-        <v>0.9689211202898079</v>
+        <v>0.9689211202898069</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9385289743657614</v>
+        <v>0.93852897436576</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022708118381329</v>
       </c>
       <c r="J15">
-        <v>0.9700609758627187</v>
+        <v>0.9700609758627176</v>
       </c>
       <c r="K15">
-        <v>0.9843786017342451</v>
+        <v>0.9843786017342441</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9546323457891022</v>
+        <v>0.9546323457891007</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9450563479061397</v>
+        <v>0.945056347906138</v>
       </c>
       <c r="D16">
-        <v>0.9744332338966014</v>
+        <v>0.9744332338966001</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9459652827883157</v>
+        <v>0.9459652827883138</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025214132248214</v>
+        <v>1.025214132248213</v>
       </c>
       <c r="J16">
-        <v>0.975548804104737</v>
+        <v>0.9755488041047357</v>
       </c>
       <c r="K16">
-        <v>0.9892418874259947</v>
+        <v>0.9892418874259934</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9613440660360546</v>
+        <v>0.9613440660360526</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9493317847859497</v>
+        <v>0.9493317847859513</v>
       </c>
       <c r="D17">
-        <v>0.9777903776926987</v>
+        <v>0.9777903776927002</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9504929720178131</v>
+        <v>0.9504929720178147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026733937577667</v>
+        <v>1.026733937577668</v>
       </c>
       <c r="J17">
-        <v>0.9788866463791119</v>
+        <v>0.9788866463791136</v>
       </c>
       <c r="K17">
-        <v>0.9921993603507014</v>
+        <v>0.9921993603507028</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9654285345133587</v>
+        <v>0.9654285345133602</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517810754576657</v>
+        <v>0.9517810754576614</v>
       </c>
       <c r="D18">
-        <v>0.9797145530783713</v>
+        <v>0.979714553078367</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9530877181991465</v>
+        <v>0.953087718199142</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027602696744856</v>
+        <v>1.027602696744854</v>
       </c>
       <c r="J18">
-        <v>0.9807982055005324</v>
+        <v>0.9807982055005281</v>
       </c>
       <c r="K18">
-        <v>0.9938928743364338</v>
+        <v>0.9938928743364297</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.967768525324327</v>
+        <v>0.9677685253243227</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526089374641284</v>
+        <v>0.9526089374641278</v>
       </c>
       <c r="D19">
-        <v>0.9803650767128768</v>
+        <v>0.9803650767128758</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9539649048009362</v>
+        <v>0.9539649048009351</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027896010708309</v>
+        <v>1.027896010708308</v>
       </c>
       <c r="J19">
-        <v>0.9814442063682354</v>
+        <v>0.9814442063682345</v>
       </c>
       <c r="K19">
-        <v>0.9944651498499414</v>
+        <v>0.9944651498499404</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9685594594958012</v>
+        <v>0.9685594594958002</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9488777378582081</v>
+        <v>0.9488777378582066</v>
       </c>
       <c r="D20">
-        <v>0.9774337508447772</v>
+        <v>0.977433750844776</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9500120375769798</v>
+        <v>0.9500120375769785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026572732408927</v>
+        <v>1.026572732408926</v>
       </c>
       <c r="J20">
-        <v>0.9785322331496286</v>
+        <v>0.9785322331496272</v>
       </c>
       <c r="K20">
-        <v>0.9918853561513659</v>
+        <v>0.9918853561513649</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9649947573156825</v>
+        <v>0.9649947573156813</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9362028535588831</v>
+        <v>0.9362028535588819</v>
       </c>
       <c r="D21">
-        <v>0.9674885398715476</v>
+        <v>0.9674885398715466</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9365957177782862</v>
+        <v>0.936595717778285</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022054754126455</v>
+        <v>1.022054754126454</v>
       </c>
       <c r="J21">
-        <v>0.9686332113292657</v>
+        <v>0.9686332113292645</v>
       </c>
       <c r="K21">
-        <v>0.9831131883094624</v>
+        <v>0.9831131883094614</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9528868290054252</v>
+        <v>0.9528868290054243</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9277632752914932</v>
+        <v>0.9277632752914928</v>
       </c>
       <c r="D22">
-        <v>0.9608784189765697</v>
+        <v>0.9608784189765694</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9276714556664825</v>
+        <v>0.927671455666482</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01902972375968</v>
       </c>
       <c r="J22">
-        <v>0.9620373819558585</v>
+        <v>0.9620373819558583</v>
       </c>
       <c r="K22">
-        <v>0.9772668682512894</v>
+        <v>0.9772668682512893</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9448261367904156</v>
+        <v>0.9448261367904152</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9322856469467625</v>
+        <v>0.9322856469467626</v>
       </c>
       <c r="D23">
-        <v>0.9644192108705885</v>
+        <v>0.9644192108705888</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9324527091077692</v>
+        <v>0.9324527091077697</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020652183055491</v>
       </c>
       <c r="J23">
-        <v>0.9655721357377174</v>
+        <v>0.9655721357377176</v>
       </c>
       <c r="K23">
-        <v>0.9804000424450399</v>
+        <v>0.9804000424450401</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9491453312032923</v>
+        <v>0.9491453312032924</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9490830389197277</v>
+        <v>0.9490830389197255</v>
       </c>
       <c r="D24">
-        <v>0.9775949996788531</v>
+        <v>0.977594999678851</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9502294931022485</v>
+        <v>0.950229493102246</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026645628582125</v>
       </c>
       <c r="J24">
-        <v>0.978692485915572</v>
+        <v>0.9786924859155699</v>
       </c>
       <c r="K24">
-        <v>0.9920273380858319</v>
+        <v>0.9920273380858299</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9651908929408896</v>
+        <v>0.9651908929408876</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9668498144845064</v>
+        <v>0.9668498144845078</v>
       </c>
       <c r="D25">
-        <v>0.9915662101288463</v>
+        <v>0.9915662101288476</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9690678694622502</v>
+        <v>0.9690678694622517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032912859717363</v>
+        <v>1.032912859717364</v>
       </c>
       <c r="J25">
-        <v>0.9925467406052416</v>
+        <v>0.9925467406052431</v>
       </c>
       <c r="K25">
-        <v>1.004296876077757</v>
+        <v>1.004296876077758</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9821661286395443</v>
+        <v>0.9821661286395459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799059740561483</v>
+        <v>0.9799411684677399</v>
       </c>
       <c r="D2">
-        <v>1.00185032272603</v>
+        <v>1.00187869108655</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9829396831985308</v>
+        <v>0.9829728024388382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037456129609982</v>
+        <v>1.037470521230766</v>
       </c>
       <c r="J2">
-        <v>1.002704766703143</v>
+        <v>1.002738847874903</v>
       </c>
       <c r="K2">
-        <v>1.013283939664998</v>
+        <v>1.01331191466243</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9946419257156872</v>
+        <v>0.9946745630405004</v>
+      </c>
+      <c r="N2">
+        <v>1.002412167719962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9888454955838233</v>
+        <v>0.9888716070348673</v>
       </c>
       <c r="D3">
-        <v>1.008897530851741</v>
+        <v>1.008918607508531</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9924538189886549</v>
+        <v>0.9924783507728846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040528910308793</v>
+        <v>1.0405396161957</v>
       </c>
       <c r="J3">
-        <v>1.009644932551149</v>
+        <v>1.009670310085323</v>
       </c>
       <c r="K3">
-        <v>1.019417817991687</v>
+        <v>1.019438630873641</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.003184173953877</v>
+        <v>1.003208385853165</v>
+      </c>
+      <c r="N3">
+        <v>1.007339429084188</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944084535494222</v>
+        <v>0.9944290749084694</v>
       </c>
       <c r="D4">
-        <v>1.013284393804133</v>
+        <v>1.013301052985388</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9983817777925087</v>
+        <v>0.9984011324698732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042422904626449</v>
+        <v>1.042431373454819</v>
       </c>
       <c r="J4">
-        <v>1.013956281280274</v>
+        <v>1.013976367090733</v>
       </c>
       <c r="K4">
-        <v>1.023225088821686</v>
+        <v>1.023241553415112</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.008499772647372</v>
+        <v>1.008518892795026</v>
+      </c>
+      <c r="N4">
+        <v>1.010395484855356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9966978041974967</v>
+        <v>0.9967162001223323</v>
       </c>
       <c r="D5">
-        <v>1.015089937665298</v>
+        <v>1.015104804054656</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.000823117417811</v>
+        <v>1.000840376434061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043197904474591</v>
+        <v>1.043205464461413</v>
       </c>
       <c r="J5">
-        <v>1.01572869918795</v>
+        <v>1.015746633304114</v>
       </c>
       <c r="K5">
-        <v>1.024789467638582</v>
+        <v>1.024804165465759</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.010687267195764</v>
+        <v>1.010704323557819</v>
+      </c>
+      <c r="N5">
+        <v>1.011650670352164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970794045968054</v>
+        <v>0.9970974314402715</v>
       </c>
       <c r="D6">
-        <v>1.015390902067675</v>
+        <v>1.015405471008774</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.001230156655629</v>
+        <v>1.001247068275035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043326821343648</v>
+        <v>1.04333423048662</v>
       </c>
       <c r="J6">
-        <v>1.016024023793834</v>
+        <v>1.016041600685529</v>
       </c>
       <c r="K6">
-        <v>1.02505007939835</v>
+        <v>1.025064483979363</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.011051885527203</v>
+        <v>1.0110685996264</v>
+      </c>
+      <c r="N6">
+        <v>1.011859742933171</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944392331453049</v>
+        <v>0.9944598244556174</v>
       </c>
       <c r="D7">
-        <v>1.013308668184525</v>
+        <v>1.013325303166989</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9984145937843432</v>
+        <v>0.9984339201540618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042433341990339</v>
+        <v>1.042441798555062</v>
       </c>
       <c r="J7">
-        <v>1.013980118308977</v>
+        <v>1.014000175092026</v>
       </c>
       <c r="K7">
-        <v>1.023246131226447</v>
+        <v>1.023262571980324</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.008529183086987</v>
+        <v>1.008548275367883</v>
+      </c>
+      <c r="N7">
+        <v>1.010412370366589</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9829753651411521</v>
+        <v>0.9830074031538627</v>
       </c>
       <c r="D8">
-        <v>1.004269573863947</v>
+        <v>1.004295410671859</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9862047897407753</v>
+        <v>0.986234921630456</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03851497171188</v>
+        <v>1.038528084640392</v>
       </c>
       <c r="J8">
-        <v>1.005089212022862</v>
+        <v>1.005120275807483</v>
       </c>
       <c r="K8">
-        <v>1.015392019996839</v>
+        <v>1.015417510568895</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9975749262854312</v>
+        <v>0.9976046354900184</v>
+      </c>
+      <c r="N8">
+        <v>1.004106056750064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9608852041719618</v>
+        <v>0.9609409357638432</v>
       </c>
       <c r="D9">
-        <v>0.9868724024894445</v>
+        <v>0.9869171801600112</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9627389419913391</v>
+        <v>0.9627915793404719</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030818581387034</v>
+        <v>1.030841239553464</v>
       </c>
       <c r="J9">
-        <v>0.9878990600801868</v>
+        <v>0.9879525899024573</v>
       </c>
       <c r="K9">
-        <v>1.000182118178158</v>
+        <v>1.000226144275901</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9764669384808259</v>
+        <v>0.9765186338856522</v>
+      </c>
+      <c r="N9">
+        <v>0.9918735785213122</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9445669505629825</v>
+        <v>0.944641850348675</v>
       </c>
       <c r="D10">
-        <v>0.9740490904599741</v>
+        <v>0.9741090853947139</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9454471411058417</v>
+        <v>0.9455181191161484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025039907013904</v>
+        <v>1.025070201308413</v>
       </c>
       <c r="J10">
-        <v>0.975166650663245</v>
+        <v>0.9752380539263041</v>
       </c>
       <c r="K10">
-        <v>0.9889032559987093</v>
+        <v>0.9889620908403213</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9608765434882901</v>
+        <v>0.9609460370445778</v>
+      </c>
+      <c r="N10">
+        <v>0.982787273647438</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9370320664224525</v>
+        <v>0.9371163833151406</v>
       </c>
       <c r="D11">
-        <v>0.9681385405484654</v>
+        <v>0.9682059767689118</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9374729224572196</v>
+        <v>0.9375529533366931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022351305398963</v>
+        <v>1.022385324579407</v>
       </c>
       <c r="J11">
-        <v>0.9692811030762641</v>
+        <v>0.9693611930903135</v>
       </c>
       <c r="K11">
-        <v>0.9836874142061373</v>
+        <v>0.9837534659444723</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9536788787708368</v>
+        <v>0.9537571202576537</v>
+      </c>
+      <c r="N11">
+        <v>0.9785813277013965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9341530816687621</v>
+        <v>0.9342411012634203</v>
       </c>
       <c r="D12">
-        <v>0.9658821741958246</v>
+        <v>0.9659525299999222</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9344276040199296</v>
+        <v>0.9345112018354214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021321160847712</v>
+        <v>1.021356639957341</v>
       </c>
       <c r="J12">
-        <v>0.9670315157329521</v>
+        <v>0.9671150048428807</v>
       </c>
       <c r="K12">
-        <v>0.9816935680682884</v>
+        <v>0.9817624471789131</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9509289695588587</v>
+        <v>0.9510106513561059</v>
+      </c>
+      <c r="N12">
+        <v>0.9769728901149556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.934774440807933</v>
+        <v>0.9348616561836494</v>
       </c>
       <c r="D13">
-        <v>0.9663690599533112</v>
+        <v>0.9664387819290048</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9350847933636448</v>
+        <v>0.9351676160945001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021543618278671</v>
+        <v>1.021578780515395</v>
       </c>
       <c r="J13">
-        <v>0.9675170673930046</v>
+        <v>0.9675998190044738</v>
       </c>
       <c r="K13">
-        <v>0.9821239293945948</v>
+        <v>0.982192194890939</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9515224595690317</v>
+        <v>0.9516033941033947</v>
+      </c>
+      <c r="N13">
+        <v>0.9773200925005969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9367957879979997</v>
+        <v>0.9368804065280774</v>
       </c>
       <c r="D14">
-        <v>0.9679533179201201</v>
+        <v>0.9680209921135474</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9372229621083576</v>
+        <v>0.9373032834091301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022266818070282</v>
+        <v>1.022300956279921</v>
       </c>
       <c r="J14">
-        <v>0.9690964942865894</v>
+        <v>0.9691768615483936</v>
       </c>
       <c r="K14">
-        <v>0.9835237965714246</v>
+        <v>0.9835900788531611</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.95345318860892</v>
+        <v>0.9535317103423211</v>
+      </c>
+      <c r="N14">
+        <v>0.9784493503737662</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9380302553295085</v>
+        <v>0.9381133022765794</v>
       </c>
       <c r="D15">
-        <v>0.9689211202898069</v>
+        <v>0.9689875543463968</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.93852897436576</v>
+        <v>0.9386077828261263</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022708118381329</v>
+        <v>1.022741636237944</v>
       </c>
       <c r="J15">
-        <v>0.9700609758627176</v>
+        <v>0.9701398979439354</v>
       </c>
       <c r="K15">
-        <v>0.9843786017342441</v>
+        <v>0.9844436824265761</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9546323457891007</v>
+        <v>0.9547094074190029</v>
+      </c>
+      <c r="N15">
+        <v>0.9791388275041949</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.945056347906138</v>
+        <v>0.9451306491679901</v>
       </c>
       <c r="D16">
-        <v>0.9744332338966001</v>
+        <v>0.9744927551119411</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9459652827883138</v>
+        <v>0.9460356863540206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025214132248213</v>
+        <v>1.025244189217475</v>
       </c>
       <c r="J16">
-        <v>0.9755488041047357</v>
+        <v>0.9756196532040047</v>
       </c>
       <c r="K16">
-        <v>0.9892418874259934</v>
+        <v>0.989300262303098</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9613440660360526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.961413003687708</v>
+      </c>
+      <c r="N16">
+        <v>0.9830602532793369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9493317847859513</v>
+        <v>0.9494009222060571</v>
       </c>
       <c r="D17">
-        <v>0.9777903776927002</v>
+        <v>0.977845807987595</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9504929720178147</v>
+        <v>0.9505584241560276</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026733937577668</v>
+        <v>1.026761944057381</v>
       </c>
       <c r="J17">
-        <v>0.9788866463791136</v>
+        <v>0.9789527039720184</v>
       </c>
       <c r="K17">
-        <v>0.9921993603507028</v>
+        <v>0.992253760380946</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9654285345133602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9654926764598073</v>
+      </c>
+      <c r="N17">
+        <v>0.9854438950045796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517810754576614</v>
+        <v>0.9518473057242568</v>
       </c>
       <c r="D18">
-        <v>0.979714553078367</v>
+        <v>0.9797676772215351</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.953087718199142</v>
+        <v>0.9531503864735855</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027602696744854</v>
+        <v>1.027629546499321</v>
       </c>
       <c r="J18">
-        <v>0.9807982055005281</v>
+        <v>0.9808615572956362</v>
       </c>
       <c r="K18">
-        <v>0.9938928743364297</v>
+        <v>0.9939450314750026</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9677685253243227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9678299677114834</v>
+      </c>
+      <c r="N18">
+        <v>0.9868084484560848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526089374641278</v>
+        <v>0.9526741932863839</v>
       </c>
       <c r="D19">
-        <v>0.9803650767128758</v>
+        <v>0.9804174273711763</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9539649048009351</v>
+        <v>0.9540266405573657</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027896010708308</v>
+        <v>1.027922472361886</v>
       </c>
       <c r="J19">
-        <v>0.9814442063682345</v>
+        <v>0.9815066498671878</v>
       </c>
       <c r="K19">
-        <v>0.9944651498499404</v>
+        <v>0.9945165543646995</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9685594594958002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9686199970761475</v>
+      </c>
+      <c r="N19">
+        <v>0.9872694988404156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9488777378582066</v>
+        <v>0.9489474182323944</v>
       </c>
       <c r="D20">
-        <v>0.977433750844776</v>
+        <v>0.9774896116054173</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9500120375769785</v>
+        <v>0.9500780099398101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026572732408926</v>
+        <v>1.026600954736948</v>
       </c>
       <c r="J20">
-        <v>0.9785322331496272</v>
+        <v>0.9785987954277326</v>
       </c>
       <c r="K20">
-        <v>0.9918853561513649</v>
+        <v>0.9919401746643136</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9649947573156813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9650594034719244</v>
+      </c>
+      <c r="N20">
+        <v>0.985190855274641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9362028535588819</v>
+        <v>0.9362882307924063</v>
       </c>
       <c r="D21">
-        <v>0.9674885398715466</v>
+        <v>0.9675568125311029</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.936595717778285</v>
+        <v>0.9366767696934921</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022054754126454</v>
+        <v>1.022089191651691</v>
       </c>
       <c r="J21">
-        <v>0.9686332113292645</v>
+        <v>0.9687142756775997</v>
       </c>
       <c r="K21">
-        <v>0.9831131883094614</v>
+        <v>0.9831800503048835</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9528868290054243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9529660556503279</v>
+      </c>
+      <c r="N21">
+        <v>0.9781181349461989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9277632752914928</v>
+        <v>0.9278597334633745</v>
       </c>
       <c r="D22">
-        <v>0.9608784189765694</v>
+        <v>0.9609554155031951</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.927671455666482</v>
+        <v>0.9277631980701965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01902972375968</v>
+        <v>1.019068520489337</v>
       </c>
       <c r="J22">
-        <v>0.9620373819558583</v>
+        <v>0.9621285838903212</v>
       </c>
       <c r="K22">
-        <v>0.9772668682512893</v>
+        <v>0.9773421699223621</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9448261367904152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9449156607024035</v>
+      </c>
+      <c r="N22">
+        <v>0.9734006374358881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9322856469467626</v>
+        <v>0.9323761006925634</v>
       </c>
       <c r="D23">
-        <v>0.9644192108705888</v>
+        <v>0.9644914840910848</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9324527091077697</v>
+        <v>0.9325386540828752</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020652183055491</v>
+        <v>1.020688620511529</v>
       </c>
       <c r="J23">
-        <v>0.9655721357377176</v>
+        <v>0.9656578544421817</v>
       </c>
       <c r="K23">
-        <v>0.9804000424450401</v>
+        <v>0.9804707771689608</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9491453312032924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.949229274879314</v>
+      </c>
+      <c r="N23">
+        <v>0.9759292162336314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9490830389197255</v>
+        <v>0.9491524736350663</v>
       </c>
       <c r="D24">
-        <v>0.977594999678851</v>
+        <v>0.9776506656852877</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.950229493102246</v>
+        <v>0.9502952300786044</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026645628582125</v>
+        <v>1.026673753257147</v>
       </c>
       <c r="J24">
-        <v>0.9786924859155699</v>
+        <v>0.978758819875288</v>
       </c>
       <c r="K24">
-        <v>0.9920273380858299</v>
+        <v>0.9920819672728014</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9651908929408876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9652553109670277</v>
+      </c>
+      <c r="N24">
+        <v>0.9853052723224723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9668498144845078</v>
+        <v>0.9668989138318845</v>
       </c>
       <c r="D25">
-        <v>0.9915662101288476</v>
+        <v>0.9916057004632854</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9690678694622517</v>
+        <v>0.969114188462104</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032912859717364</v>
+        <v>1.03293285819226</v>
       </c>
       <c r="J25">
-        <v>0.9925467406052431</v>
+        <v>0.9925940242009549</v>
       </c>
       <c r="K25">
-        <v>1.004296876077758</v>
+        <v>1.004335739977956</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9821661286395459</v>
+        <v>0.9822116682390415</v>
+      </c>
+      <c r="N25">
+        <v>0.9951852990280172</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9799411684677399</v>
+        <v>0.9835655993425956</v>
       </c>
       <c r="D2">
-        <v>1.00187869108655</v>
+        <v>1.003772826356716</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9954177058340415</v>
       </c>
       <c r="F2">
-        <v>0.9829728024388382</v>
+        <v>0.9976666053443912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037470521230766</v>
+        <v>1.035704137206558</v>
       </c>
       <c r="J2">
-        <v>1.002738847874903</v>
+        <v>1.006249223255248</v>
       </c>
       <c r="K2">
-        <v>1.01331191466243</v>
+        <v>1.015179848773066</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.006941250607625</v>
       </c>
       <c r="M2">
-        <v>0.9946745630405004</v>
+        <v>1.0091585440681</v>
       </c>
       <c r="N2">
-        <v>1.002412167719962</v>
+        <v>1.007678212570669</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9888716070348673</v>
+        <v>0.9928445040441025</v>
       </c>
       <c r="D3">
-        <v>1.008918607508531</v>
+        <v>1.01075467104384</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.00369429238468</v>
       </c>
       <c r="F3">
-        <v>0.9924783507728846</v>
+        <v>1.006798220062682</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0405396161957</v>
+        <v>1.038209589049124</v>
       </c>
       <c r="J3">
-        <v>1.009670310085323</v>
+        <v>1.013532154190124</v>
       </c>
       <c r="K3">
-        <v>1.019438630873641</v>
+        <v>1.021251768639518</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.014280121277778</v>
       </c>
       <c r="M3">
-        <v>1.003208385853165</v>
+        <v>1.017344849140429</v>
       </c>
       <c r="N3">
-        <v>1.007339429084188</v>
+        <v>1.014971486102836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944290749084694</v>
+        <v>0.9986242114187619</v>
       </c>
       <c r="D4">
-        <v>1.013301052985388</v>
+        <v>1.015105722730666</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.008868070278522</v>
       </c>
       <c r="F4">
-        <v>0.9984011324698732</v>
+        <v>1.012505098557454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042431373454819</v>
+        <v>1.039755481412971</v>
       </c>
       <c r="J4">
-        <v>1.013976367090733</v>
+        <v>1.018063175602353</v>
       </c>
       <c r="K4">
-        <v>1.023241553415112</v>
+        <v>1.025025190448286</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.018860630908914</v>
       </c>
       <c r="M4">
-        <v>1.008518892795026</v>
+        <v>1.022454904998241</v>
       </c>
       <c r="N4">
-        <v>1.010395484855356</v>
+        <v>1.019508942085187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967162001223323</v>
+        <v>1.001004013158002</v>
       </c>
       <c r="D5">
-        <v>1.015104804054656</v>
+        <v>1.016897605719127</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.011002616067871</v>
       </c>
       <c r="F5">
-        <v>1.000840376434061</v>
+        <v>1.014859308490907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043205464461413</v>
+        <v>1.04038837889046</v>
       </c>
       <c r="J5">
-        <v>1.015746633304114</v>
+        <v>1.019927429675653</v>
       </c>
       <c r="K5">
-        <v>1.024804165465759</v>
+        <v>1.026576684021494</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.0207487220858</v>
       </c>
       <c r="M5">
-        <v>1.010704323557819</v>
+        <v>1.024561454227148</v>
       </c>
       <c r="N5">
-        <v>1.011650670352164</v>
+        <v>1.021375843613104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970974314402715</v>
+        <v>1.001400761885844</v>
       </c>
       <c r="D6">
-        <v>1.015405471008774</v>
+        <v>1.017196354025981</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.011358721375951</v>
       </c>
       <c r="F6">
-        <v>1.001247068275035</v>
+        <v>1.015252045463009</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04333423048662</v>
+        <v>1.040493676485648</v>
       </c>
       <c r="J6">
-        <v>1.016041600685529</v>
+        <v>1.020238143781951</v>
       </c>
       <c r="K6">
-        <v>1.025064483979363</v>
+        <v>1.026835207243646</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.021063612396488</v>
       </c>
       <c r="M6">
-        <v>1.0110685996264</v>
+        <v>1.024912789601639</v>
       </c>
       <c r="N6">
-        <v>1.011859742933171</v>
+        <v>1.021686998969072</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944598244556174</v>
+        <v>0.9986562022383902</v>
       </c>
       <c r="D7">
-        <v>1.013325303166989</v>
+        <v>1.015129809285746</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.008896747638045</v>
       </c>
       <c r="F7">
-        <v>0.9984339201540618</v>
+        <v>1.012536728106792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042441798555062</v>
+        <v>1.039764003718964</v>
       </c>
       <c r="J7">
-        <v>1.014000175092026</v>
+        <v>1.018088241773594</v>
       </c>
       <c r="K7">
-        <v>1.023262571980324</v>
+        <v>1.025046055575425</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.018886003860406</v>
       </c>
       <c r="M7">
-        <v>1.008548275367883</v>
+        <v>1.022483212936845</v>
       </c>
       <c r="N7">
-        <v>1.010412370366589</v>
+        <v>1.019534043853266</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9830074031538627</v>
+        <v>0.9867502829012735</v>
       </c>
       <c r="D8">
-        <v>1.004295410671859</v>
+        <v>1.006168541730077</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9982543532486264</v>
       </c>
       <c r="F8">
-        <v>0.986234921630456</v>
+        <v>1.000796627593257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038528084640392</v>
+        <v>1.036567116161293</v>
       </c>
       <c r="J8">
-        <v>1.005120275807483</v>
+        <v>1.008749939312169</v>
       </c>
       <c r="K8">
-        <v>1.015417510568895</v>
+        <v>1.017265599520402</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.009458022465818</v>
       </c>
       <c r="M8">
-        <v>0.9976046354900184</v>
+        <v>1.011965818854255</v>
       </c>
       <c r="N8">
-        <v>1.004106056750064</v>
+        <v>1.010182479931228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9609409357638432</v>
+        <v>0.963859284062767</v>
       </c>
       <c r="D9">
-        <v>0.9869171801600112</v>
+        <v>0.9889669310035089</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9779549311524328</v>
       </c>
       <c r="F9">
-        <v>0.9627915793404719</v>
+        <v>0.9783889822108298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030841239553464</v>
+        <v>1.030303807751701</v>
       </c>
       <c r="J9">
-        <v>0.9879525899024573</v>
+        <v>0.9907561468981785</v>
       </c>
       <c r="K9">
-        <v>1.000226144275901</v>
+        <v>1.002241584865645</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9914160956557783</v>
       </c>
       <c r="M9">
-        <v>0.9765186338856522</v>
+        <v>0.9918426924438339</v>
       </c>
       <c r="N9">
-        <v>0.9918735785213122</v>
+        <v>0.9921631342680924</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.944641850348675</v>
+        <v>0.9469938147593243</v>
       </c>
       <c r="D10">
-        <v>0.9741090853947139</v>
+        <v>0.9763290950901472</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9631279602367016</v>
       </c>
       <c r="F10">
-        <v>0.9455181191161484</v>
+        <v>0.9620069831190595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025070201308413</v>
+        <v>1.025616766604874</v>
       </c>
       <c r="J10">
-        <v>0.9752380539263041</v>
+        <v>0.9774806265239983</v>
       </c>
       <c r="K10">
-        <v>0.9889620908403213</v>
+        <v>0.9911393045417103</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9781964683319021</v>
       </c>
       <c r="M10">
-        <v>0.9609460370445778</v>
+        <v>0.9770978542025816</v>
       </c>
       <c r="N10">
-        <v>0.982787273647438</v>
+        <v>0.9788687611322573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9371163833151406</v>
+        <v>0.9392198141767537</v>
       </c>
       <c r="D11">
-        <v>0.9682059767689118</v>
+        <v>0.9705169304122006</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9563293776325346</v>
       </c>
       <c r="F11">
-        <v>0.9375529533366931</v>
+        <v>0.9544902743180347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022385324579407</v>
+        <v>1.023441182684528</v>
       </c>
       <c r="J11">
-        <v>0.9693611930903135</v>
+        <v>0.9713595322670625</v>
       </c>
       <c r="K11">
-        <v>0.9837534659444723</v>
+        <v>0.9860171284216855</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9721246840066204</v>
       </c>
       <c r="M11">
-        <v>0.9537571202576537</v>
+        <v>0.9703246861428156</v>
       </c>
       <c r="N11">
-        <v>0.9785813277013965</v>
+        <v>0.9727389742193774</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9342411012634203</v>
+        <v>0.9362518509888795</v>
       </c>
       <c r="D12">
-        <v>0.9659525299999222</v>
+        <v>0.9683004053261061</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9537397210349255</v>
       </c>
       <c r="F12">
-        <v>0.9345112018354214</v>
+        <v>0.9516261512392414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021356639957341</v>
+        <v>1.022608526509734</v>
       </c>
       <c r="J12">
-        <v>0.9671150048428807</v>
+        <v>0.9690225948474496</v>
       </c>
       <c r="K12">
-        <v>0.9817624471789131</v>
+        <v>0.9840612057479999</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9698103058230223</v>
       </c>
       <c r="M12">
-        <v>0.9510106513561059</v>
+        <v>0.9677427500162173</v>
       </c>
       <c r="N12">
-        <v>0.9769728901149556</v>
+        <v>0.970398718080578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9348616561836494</v>
+        <v>0.9368922998494917</v>
       </c>
       <c r="D13">
-        <v>0.9664387819290048</v>
+        <v>0.9687785846524055</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9542982600672053</v>
       </c>
       <c r="F13">
-        <v>0.9351676160945001</v>
+        <v>0.9522439319182194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021578780515395</v>
+        <v>1.022788292243457</v>
       </c>
       <c r="J13">
-        <v>0.9675998190044738</v>
+        <v>0.9695268727346501</v>
       </c>
       <c r="K13">
-        <v>0.982192194890939</v>
+        <v>0.9844832801399397</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9703095438404901</v>
       </c>
       <c r="M13">
-        <v>0.9516033941033947</v>
+        <v>0.9682997144407192</v>
       </c>
       <c r="N13">
-        <v>0.9773200925005969</v>
+        <v>0.9709037121002201</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9368804065280774</v>
+        <v>0.9389761827353638</v>
       </c>
       <c r="D14">
-        <v>0.9680209921135474</v>
+        <v>0.9703349298668179</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9561166773414812</v>
       </c>
       <c r="F14">
-        <v>0.9373032834091301</v>
+        <v>0.9542550505545234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022300956279921</v>
+        <v>1.023372872682681</v>
       </c>
       <c r="J14">
-        <v>0.9691768615483936</v>
+        <v>0.971167698703866</v>
       </c>
       <c r="K14">
-        <v>0.9835900788531611</v>
+        <v>0.9858565779406822</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9719346255013378</v>
       </c>
       <c r="M14">
-        <v>0.9535317103423211</v>
+        <v>0.9701126604025345</v>
       </c>
       <c r="N14">
-        <v>0.9784493503737662</v>
+        <v>0.9725468682305173</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9381133022765794</v>
+        <v>0.9402491657149075</v>
       </c>
       <c r="D15">
-        <v>0.9689875543463968</v>
+        <v>0.9712859913066425</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9572282867339098</v>
       </c>
       <c r="F15">
-        <v>0.9386077828261263</v>
+        <v>0.9554843331349777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022741636237944</v>
+        <v>1.023729712801336</v>
       </c>
       <c r="J15">
-        <v>0.9701398979439354</v>
+        <v>0.972170036666857</v>
       </c>
       <c r="K15">
-        <v>0.9844436824265761</v>
+        <v>0.9866954468375663</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9729278411828438</v>
       </c>
       <c r="M15">
-        <v>0.9547094074190029</v>
+        <v>0.9712206642509648</v>
       </c>
       <c r="N15">
-        <v>0.9791388275041949</v>
+        <v>0.9735506296283858</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9451306491679901</v>
+        <v>0.9474990479592238</v>
       </c>
       <c r="D16">
-        <v>0.9744927551119411</v>
+        <v>0.9767071358244646</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9635705779548344</v>
       </c>
       <c r="F16">
-        <v>0.9460356863540206</v>
+        <v>0.9624962365399162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025244189217475</v>
+        <v>1.025757864414437</v>
       </c>
       <c r="J16">
-        <v>0.9756196532040047</v>
+        <v>0.9778784195030731</v>
       </c>
       <c r="K16">
-        <v>0.989300262303098</v>
+        <v>0.9914721254941842</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9785915555016648</v>
       </c>
       <c r="M16">
-        <v>0.961413003687708</v>
+        <v>0.977538555800131</v>
       </c>
       <c r="N16">
-        <v>0.9830602532793369</v>
+        <v>0.9792671190229899</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9494009222060571</v>
+        <v>0.9519143725942665</v>
       </c>
       <c r="D17">
-        <v>0.977845807987595</v>
+        <v>0.9800124182757639</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9674427444454968</v>
       </c>
       <c r="F17">
-        <v>0.9505584241560276</v>
+        <v>0.9667758005675301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026761944057381</v>
+        <v>1.026989275679232</v>
       </c>
       <c r="J17">
-        <v>0.9789527039720184</v>
+        <v>0.9813546234937628</v>
       </c>
       <c r="K17">
-        <v>0.992253760380946</v>
+        <v>0.9943802196168491</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9820467616111517</v>
       </c>
       <c r="M17">
-        <v>0.9654926764598073</v>
+        <v>0.981392575898548</v>
       </c>
       <c r="N17">
-        <v>0.9854438950045796</v>
+        <v>0.9827482596220725</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9518473057242568</v>
+        <v>0.9544450332115657</v>
       </c>
       <c r="D18">
-        <v>0.9797676772215351</v>
+        <v>0.9819080410080445</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9696653776388875</v>
       </c>
       <c r="F18">
-        <v>0.9531503864735855</v>
+        <v>0.9692318169663814</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027629546499321</v>
+        <v>1.027693643300009</v>
       </c>
       <c r="J18">
-        <v>0.9808615572956362</v>
+        <v>0.9833468330927534</v>
       </c>
       <c r="K18">
-        <v>0.9939450314750026</v>
+        <v>0.9960465479721344</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9840291090363164</v>
       </c>
       <c r="M18">
-        <v>0.9678299677114834</v>
+        <v>0.9836036606299887</v>
       </c>
       <c r="N18">
-        <v>0.9868084484560848</v>
+        <v>0.9847432983872033</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9526741932863839</v>
+        <v>0.9553005985684152</v>
       </c>
       <c r="D19">
-        <v>0.9804174273711763</v>
+        <v>0.9825491016508545</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9704173484908631</v>
       </c>
       <c r="F19">
-        <v>0.9540266405573657</v>
+        <v>0.9700626724801655</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027922472361886</v>
+        <v>1.027931529114745</v>
       </c>
       <c r="J19">
-        <v>0.9815066498671878</v>
+        <v>0.9840203199297768</v>
       </c>
       <c r="K19">
-        <v>0.9945165543646995</v>
+        <v>0.9966098137574723</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9846996251853434</v>
       </c>
       <c r="M19">
-        <v>0.9686199970761475</v>
+        <v>0.9843515354464893</v>
       </c>
       <c r="N19">
-        <v>0.9872694988404156</v>
+        <v>0.9854177416527855</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9489474182323944</v>
+        <v>0.9514453393061266</v>
       </c>
       <c r="D20">
-        <v>0.9774896116054173</v>
+        <v>0.97966117641563</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9670310644538539</v>
       </c>
       <c r="F20">
-        <v>0.9500780099398101</v>
+        <v>0.9663208562927789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026600954736948</v>
+        <v>1.0268586112524</v>
       </c>
       <c r="J20">
-        <v>0.9785987954277326</v>
+        <v>0.9809853697429645</v>
       </c>
       <c r="K20">
-        <v>0.9919401746643136</v>
+        <v>0.9940713426462994</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9816795109318137</v>
       </c>
       <c r="M20">
-        <v>0.9650594034719244</v>
+        <v>0.9809829438155232</v>
       </c>
       <c r="N20">
-        <v>0.985190855274641</v>
+        <v>0.982378481488594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9362882307924063</v>
+        <v>0.9383648357072141</v>
       </c>
       <c r="D21">
-        <v>0.9675568125311029</v>
+        <v>0.9698782749209424</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9555830430105029</v>
       </c>
       <c r="F21">
-        <v>0.9366767696934921</v>
+        <v>0.9536648926583159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022089191651691</v>
+        <v>1.02320142938112</v>
       </c>
       <c r="J21">
-        <v>0.9687142756775997</v>
+        <v>0.9706863292543608</v>
       </c>
       <c r="K21">
-        <v>0.9831800503048835</v>
+        <v>0.985453702066704</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9714577708653304</v>
       </c>
       <c r="M21">
-        <v>0.9529660556503279</v>
+        <v>0.9695806865065874</v>
       </c>
       <c r="N21">
-        <v>0.9781181349461989</v>
+        <v>0.9720648151811799</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9278597334633745</v>
+        <v>0.9296694632335694</v>
       </c>
       <c r="D22">
-        <v>0.9609554155031951</v>
+        <v>0.9633897003803148</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9480079878697455</v>
       </c>
       <c r="F22">
-        <v>0.9277631980701965</v>
+        <v>0.9452850226731223</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019068520489337</v>
+        <v>1.020758302770273</v>
       </c>
       <c r="J22">
-        <v>0.9621285838903212</v>
+        <v>0.9638399916298284</v>
       </c>
       <c r="K22">
-        <v>0.9773421699223621</v>
+        <v>0.9797230566519652</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9646849100321158</v>
       </c>
       <c r="M22">
-        <v>0.9449156607024035</v>
+        <v>0.9620243219960894</v>
       </c>
       <c r="N22">
-        <v>0.9734006374358881</v>
+        <v>0.9652087549719348</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9323761006925634</v>
+        <v>0.9343274264410093</v>
       </c>
       <c r="D23">
-        <v>0.9644914840910848</v>
+        <v>0.9668639691148339</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9520623335602475</v>
       </c>
       <c r="F23">
-        <v>0.9325386540828752</v>
+        <v>0.9497707016355073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020688620511529</v>
+        <v>1.022068081638215</v>
       </c>
       <c r="J23">
-        <v>0.9656578544421817</v>
+        <v>0.9675073568416542</v>
       </c>
       <c r="K23">
-        <v>0.9804707771689608</v>
+        <v>0.9827929275968463</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.968310776759561</v>
       </c>
       <c r="M23">
-        <v>0.949229274879314</v>
+        <v>0.9660697933401491</v>
       </c>
       <c r="N23">
-        <v>0.9759292162336314</v>
+        <v>0.9688813282630145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9491524736350663</v>
+        <v>0.9516574127632201</v>
       </c>
       <c r="D24">
-        <v>0.9776506656852877</v>
+        <v>0.9798199868029912</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9672171954206906</v>
       </c>
       <c r="F24">
-        <v>0.9502952300786044</v>
+        <v>0.966526549571629</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026673753257147</v>
+        <v>1.026917695626168</v>
       </c>
       <c r="J24">
-        <v>0.978758819875288</v>
+        <v>0.9811523284813233</v>
       </c>
       <c r="K24">
-        <v>0.9920819672728014</v>
+        <v>0.9942110028520854</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9818455572310809</v>
       </c>
       <c r="M24">
-        <v>0.9652553109670277</v>
+        <v>0.9811681523852015</v>
       </c>
       <c r="N24">
-        <v>0.9853052723224723</v>
+        <v>0.9825456773275117</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9668989138318845</v>
+        <v>0.9700334702471217</v>
       </c>
       <c r="D25">
-        <v>0.9916057004632854</v>
+        <v>0.9936018506841282</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9834098503227865</v>
       </c>
       <c r="F25">
-        <v>0.969114188462104</v>
+        <v>0.984412567258159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03293285819226</v>
+        <v>1.032005899097727</v>
       </c>
       <c r="J25">
-        <v>0.9925940242009549</v>
+        <v>0.995613195320157</v>
       </c>
       <c r="K25">
-        <v>1.004335739977956</v>
+        <v>1.006300308362525</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9962712848807427</v>
       </c>
       <c r="M25">
-        <v>0.9822116682390415</v>
+        <v>0.9972577755827567</v>
       </c>
       <c r="N25">
-        <v>0.9951852990280172</v>
+        <v>0.9970270802559416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835655993425956</v>
+        <v>0.990461954797596</v>
       </c>
       <c r="D2">
-        <v>1.003772826356716</v>
+        <v>1.010814701777381</v>
       </c>
       <c r="E2">
-        <v>0.9954177058340415</v>
+        <v>1.001409935827771</v>
       </c>
       <c r="F2">
-        <v>0.9976666053443912</v>
+        <v>1.003582105100866</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035704137206558</v>
+        <v>1.042004576084691</v>
       </c>
       <c r="J2">
-        <v>1.006249223255248</v>
+        <v>1.012931738467414</v>
       </c>
       <c r="K2">
-        <v>1.015179848773066</v>
+        <v>1.022125398973845</v>
       </c>
       <c r="L2">
-        <v>1.006941250607625</v>
+        <v>1.012849662892034</v>
       </c>
       <c r="M2">
-        <v>1.0091585440681</v>
+        <v>1.014991760077553</v>
       </c>
       <c r="N2">
-        <v>1.007678212570669</v>
+        <v>1.014370217720933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928445040441025</v>
+        <v>0.9954533408610987</v>
       </c>
       <c r="D3">
-        <v>1.01075467104384</v>
+        <v>1.014545918624639</v>
       </c>
       <c r="E3">
-        <v>1.00369429238468</v>
+        <v>1.007273568450803</v>
       </c>
       <c r="F3">
-        <v>1.006798220062682</v>
+        <v>1.00984993700783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038209589049124</v>
+        <v>1.043398261560277</v>
       </c>
       <c r="J3">
-        <v>1.013532154190124</v>
+        <v>1.016068724487189</v>
       </c>
       <c r="K3">
-        <v>1.021251768639518</v>
+        <v>1.024996004146675</v>
       </c>
       <c r="L3">
-        <v>1.014280121277778</v>
+        <v>1.017814220912175</v>
       </c>
       <c r="M3">
-        <v>1.017344849140429</v>
+        <v>1.020358318463439</v>
       </c>
       <c r="N3">
-        <v>1.014971486102836</v>
+        <v>1.017511658620672</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9986242114187619</v>
+        <v>0.9986028398158903</v>
       </c>
       <c r="D4">
-        <v>1.015105722730666</v>
+        <v>1.016898733169326</v>
       </c>
       <c r="E4">
-        <v>1.008868070278522</v>
+        <v>1.010982112448364</v>
       </c>
       <c r="F4">
-        <v>1.012505098557454</v>
+        <v>1.013812578832615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039755481412971</v>
+        <v>1.044260379552798</v>
       </c>
       <c r="J4">
-        <v>1.018063175602353</v>
+        <v>1.018042352742902</v>
       </c>
       <c r="K4">
-        <v>1.025025190448286</v>
+        <v>1.026797395422736</v>
       </c>
       <c r="L4">
-        <v>1.018860630908914</v>
+        <v>1.020949775640702</v>
       </c>
       <c r="M4">
-        <v>1.022454904998241</v>
+        <v>1.023747108226506</v>
       </c>
       <c r="N4">
-        <v>1.019508942085187</v>
+        <v>1.019488089654887</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001004013158002</v>
+        <v>0.9999084415950082</v>
       </c>
       <c r="D5">
-        <v>1.016897605719127</v>
+        <v>1.017873630522758</v>
       </c>
       <c r="E5">
-        <v>1.011002616067871</v>
+        <v>1.012521653427379</v>
       </c>
       <c r="F5">
-        <v>1.014859308490907</v>
+        <v>1.015457236263457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04038837889046</v>
+        <v>1.044613547921486</v>
       </c>
       <c r="J5">
-        <v>1.019927429675653</v>
+        <v>1.018859084068272</v>
       </c>
       <c r="K5">
-        <v>1.026576684021494</v>
+        <v>1.027541703438387</v>
       </c>
       <c r="L5">
-        <v>1.0207487220858</v>
+        <v>1.022250395471873</v>
       </c>
       <c r="M5">
-        <v>1.024561454227148</v>
+        <v>1.025152603412574</v>
       </c>
       <c r="N5">
-        <v>1.021375843613104</v>
+        <v>1.020305980832419</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001400761885844</v>
+        <v>1.000126597526237</v>
       </c>
       <c r="D6">
-        <v>1.017196354025981</v>
+        <v>1.018036499976596</v>
       </c>
       <c r="E6">
-        <v>1.011358721375951</v>
+        <v>1.012779030769231</v>
       </c>
       <c r="F6">
-        <v>1.015252045463009</v>
+        <v>1.015732165187229</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040493676485648</v>
+        <v>1.044672309649907</v>
       </c>
       <c r="J6">
-        <v>1.020238143781951</v>
+        <v>1.018995468844172</v>
       </c>
       <c r="K6">
-        <v>1.026835207243646</v>
+        <v>1.027665925868138</v>
       </c>
       <c r="L6">
-        <v>1.021063612396488</v>
+        <v>1.022467768239416</v>
       </c>
       <c r="M6">
-        <v>1.024912789601639</v>
+        <v>1.025387494070104</v>
       </c>
       <c r="N6">
-        <v>1.021686998969072</v>
+        <v>1.020442559290345</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9986562022383902</v>
+        <v>0.9986203568365561</v>
       </c>
       <c r="D7">
-        <v>1.015129809285746</v>
+        <v>1.016911815047013</v>
       </c>
       <c r="E7">
-        <v>1.008896747638045</v>
+        <v>1.011002759380928</v>
       </c>
       <c r="F7">
-        <v>1.012536728106792</v>
+        <v>1.013834636943635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039764003718964</v>
+        <v>1.044265134713513</v>
       </c>
       <c r="J7">
-        <v>1.018088241773594</v>
+        <v>1.018053316349748</v>
       </c>
       <c r="K7">
-        <v>1.025046055575425</v>
+        <v>1.026807391422642</v>
       </c>
       <c r="L7">
-        <v>1.018886003860406</v>
+        <v>1.020967222555791</v>
       </c>
       <c r="M7">
-        <v>1.022483212936845</v>
+        <v>1.023765962636266</v>
       </c>
       <c r="N7">
-        <v>1.019534043853266</v>
+        <v>1.019499068831312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9867502829012735</v>
+        <v>0.9921659131696543</v>
       </c>
       <c r="D8">
-        <v>1.006168541730077</v>
+        <v>1.012088738762788</v>
       </c>
       <c r="E8">
-        <v>0.9982543532486264</v>
+        <v>1.003409907844662</v>
       </c>
       <c r="F8">
-        <v>1.000796627593257</v>
+        <v>1.005720267576177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036567116161293</v>
+        <v>1.042483943544439</v>
       </c>
       <c r="J8">
-        <v>1.008749939312169</v>
+        <v>1.014003832264105</v>
       </c>
       <c r="K8">
-        <v>1.017265599520402</v>
+        <v>1.023107412861162</v>
       </c>
       <c r="L8">
-        <v>1.009458022465818</v>
+        <v>1.014543887030979</v>
       </c>
       <c r="M8">
-        <v>1.011965818854255</v>
+        <v>1.016823307732736</v>
       </c>
       <c r="N8">
-        <v>1.010182479931228</v>
+        <v>1.015443834013785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963859284062767</v>
+        <v>0.9801405311103676</v>
       </c>
       <c r="D9">
-        <v>0.9889669310035089</v>
+        <v>1.003094195281514</v>
       </c>
       <c r="E9">
-        <v>0.9779549311524328</v>
+        <v>0.9893276783994691</v>
       </c>
       <c r="F9">
-        <v>0.9783889822108298</v>
+        <v>0.9906583068184368</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030303807751701</v>
+        <v>1.039029839153068</v>
       </c>
       <c r="J9">
-        <v>0.9907561468981785</v>
+        <v>1.006414610417669</v>
       </c>
       <c r="K9">
-        <v>1.002241584865645</v>
+        <v>1.016137270012741</v>
       </c>
       <c r="L9">
-        <v>0.9914160956557783</v>
+        <v>1.002596312757637</v>
       </c>
       <c r="M9">
-        <v>0.9918426924438339</v>
+        <v>1.003904786859692</v>
       </c>
       <c r="N9">
-        <v>0.9921631342680924</v>
+        <v>1.007843834601832</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9469938147593243</v>
+        <v>0.971628955659551</v>
       </c>
       <c r="D10">
-        <v>0.9763290950901472</v>
+        <v>0.996727566798582</v>
       </c>
       <c r="E10">
-        <v>0.9631279602367016</v>
+        <v>0.9793954585583645</v>
       </c>
       <c r="F10">
-        <v>0.9620069831190595</v>
+        <v>0.9800263815993105</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025616766604874</v>
+        <v>1.036497607430149</v>
       </c>
       <c r="J10">
-        <v>0.9774806265239983</v>
+        <v>1.001015251090285</v>
       </c>
       <c r="K10">
-        <v>0.9911393045417103</v>
+        <v>1.011156158481732</v>
       </c>
       <c r="L10">
-        <v>0.9781964683319021</v>
+        <v>0.9941469739013618</v>
       </c>
       <c r="M10">
-        <v>0.9770978542025816</v>
+        <v>0.9947658798602838</v>
       </c>
       <c r="N10">
-        <v>0.9788687611322573</v>
+        <v>1.002436807564887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9392198141767537</v>
+        <v>0.9678119608012956</v>
       </c>
       <c r="D11">
-        <v>0.9705169304122006</v>
+        <v>0.9938737248474253</v>
       </c>
       <c r="E11">
-        <v>0.9563293776325346</v>
+        <v>0.9749476568026418</v>
       </c>
       <c r="F11">
-        <v>0.9544902743180347</v>
+        <v>0.9752631178733562</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023441182684528</v>
+        <v>1.035342338156485</v>
       </c>
       <c r="J11">
-        <v>0.9713595322670625</v>
+        <v>0.9985879355246339</v>
       </c>
       <c r="K11">
-        <v>0.9860171284216855</v>
+        <v>1.00891210596232</v>
       </c>
       <c r="L11">
-        <v>0.9721246840066204</v>
+        <v>0.9903580101729828</v>
       </c>
       <c r="M11">
-        <v>0.9703246861428156</v>
+        <v>0.9906671154195519</v>
       </c>
       <c r="N11">
-        <v>0.9727389742193774</v>
+        <v>1.000006044932716</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9362518509888795</v>
+        <v>0.9663730860345867</v>
       </c>
       <c r="D12">
-        <v>0.9683004053261061</v>
+        <v>0.9927982341915632</v>
       </c>
       <c r="E12">
-        <v>0.9537397210349255</v>
+        <v>0.9732717371259675</v>
       </c>
       <c r="F12">
-        <v>0.9516261512392414</v>
+        <v>0.9734680084431768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022608526509734</v>
+        <v>1.034903975222776</v>
       </c>
       <c r="J12">
-        <v>0.9690225948474496</v>
+        <v>0.9976720744340263</v>
       </c>
       <c r="K12">
-        <v>0.9840612057479999</v>
+        <v>1.008064721645338</v>
       </c>
       <c r="L12">
-        <v>0.9698103058230223</v>
+        <v>0.9889295709310656</v>
       </c>
       <c r="M12">
-        <v>0.9677427500162173</v>
+        <v>0.9891218055353219</v>
       </c>
       <c r="N12">
-        <v>0.970398718080578</v>
+        <v>0.9990888832143091</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9368922998494917</v>
+        <v>0.9666827058143115</v>
       </c>
       <c r="D13">
-        <v>0.9687785846524055</v>
+        <v>0.9930296443423959</v>
       </c>
       <c r="E13">
-        <v>0.9542982600672053</v>
+        <v>0.9736323342628748</v>
       </c>
       <c r="F13">
-        <v>0.9522439319182194</v>
+        <v>0.9738542656446814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022788292243457</v>
+        <v>1.034998430904682</v>
       </c>
       <c r="J13">
-        <v>0.9695268727346501</v>
+        <v>0.9978691885483496</v>
       </c>
       <c r="K13">
-        <v>0.9844832801399397</v>
+        <v>1.008247127566167</v>
       </c>
       <c r="L13">
-        <v>0.9703095438404901</v>
+        <v>0.9892369536577926</v>
       </c>
       <c r="M13">
-        <v>0.9682997144407192</v>
+        <v>0.9894543406430301</v>
       </c>
       <c r="N13">
-        <v>0.9709037121002201</v>
+        <v>0.999286277253284</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9389761827353638</v>
+        <v>0.9676934609575646</v>
       </c>
       <c r="D14">
-        <v>0.9703349298668179</v>
+        <v>0.9937851448454673</v>
       </c>
       <c r="E14">
-        <v>0.9561166773414812</v>
+        <v>0.9748096209253214</v>
       </c>
       <c r="F14">
-        <v>0.9542550505545234</v>
+        <v>0.975115271645257</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023372872682681</v>
+        <v>1.035306294034278</v>
       </c>
       <c r="J14">
-        <v>0.971167698703866</v>
+        <v>0.9985125258448896</v>
       </c>
       <c r="K14">
-        <v>0.9858565779406822</v>
+        <v>1.008842347844583</v>
       </c>
       <c r="L14">
-        <v>0.9719346255013378</v>
+        <v>0.9902403733336778</v>
       </c>
       <c r="M14">
-        <v>0.9701126604025345</v>
+        <v>0.9905398553589538</v>
       </c>
       <c r="N14">
-        <v>0.9725468682305173</v>
+        <v>0.9999305281625769</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9402491657149075</v>
+        <v>0.9683133864095177</v>
       </c>
       <c r="D15">
-        <v>0.9712859913066425</v>
+        <v>0.9942485595863615</v>
       </c>
       <c r="E15">
-        <v>0.9572282867339098</v>
+        <v>0.9755317772851384</v>
       </c>
       <c r="F15">
-        <v>0.9554843331349777</v>
+        <v>0.9758887391467602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023729712801336</v>
+        <v>1.035494740755939</v>
       </c>
       <c r="J15">
-        <v>0.972170036666857</v>
+        <v>0.9989069932843976</v>
       </c>
       <c r="K15">
-        <v>0.9866954468375663</v>
+        <v>1.00920722497027</v>
       </c>
       <c r="L15">
-        <v>0.9729278411828438</v>
+        <v>0.9908557777565369</v>
       </c>
       <c r="M15">
-        <v>0.9712206642509648</v>
+        <v>0.9912055996056117</v>
       </c>
       <c r="N15">
-        <v>0.9735506296283858</v>
+        <v>1.000325555791095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9474990479592238</v>
+        <v>0.9718793974594534</v>
       </c>
       <c r="D16">
-        <v>0.9767071358244646</v>
+        <v>0.9969148499778588</v>
       </c>
       <c r="E16">
-        <v>0.9635705779548344</v>
+        <v>0.9796874033929033</v>
       </c>
       <c r="F16">
-        <v>0.9624962365399162</v>
+        <v>0.9803389881453516</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025757864414437</v>
+        <v>1.036573005836157</v>
       </c>
       <c r="J16">
-        <v>0.9778784195030731</v>
+        <v>1.001174392815367</v>
       </c>
       <c r="K16">
-        <v>0.9914721254941842</v>
+        <v>1.011303189808211</v>
       </c>
       <c r="L16">
-        <v>0.9785915555016648</v>
+        <v>0.9943955667708542</v>
       </c>
       <c r="M16">
-        <v>0.977538555800131</v>
+        <v>0.9950347875962703</v>
       </c>
       <c r="N16">
-        <v>0.9792671190229899</v>
+        <v>1.002596175289473</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9519143725942665</v>
+        <v>0.9740801755637609</v>
       </c>
       <c r="D17">
-        <v>0.9800124182757639</v>
+        <v>0.9985607728200742</v>
       </c>
       <c r="E17">
-        <v>0.9674427444454968</v>
+        <v>0.9822535830138187</v>
       </c>
       <c r="F17">
-        <v>0.9667758005675301</v>
+        <v>0.9830865415870116</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026989275679232</v>
+        <v>1.037233352922734</v>
       </c>
       <c r="J17">
-        <v>0.9813546234937628</v>
+        <v>1.00257219120793</v>
       </c>
       <c r="K17">
-        <v>0.9943802196168491</v>
+        <v>1.01259408404828</v>
       </c>
       <c r="L17">
-        <v>0.9820467616111517</v>
+        <v>0.9965800944555067</v>
       </c>
       <c r="M17">
-        <v>0.981392575898548</v>
+        <v>0.9973977695840865</v>
       </c>
       <c r="N17">
-        <v>0.9827482596220725</v>
+        <v>1.003995958716083</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9544450332115657</v>
+        <v>0.9753512673236624</v>
       </c>
       <c r="D18">
-        <v>0.9819080410080445</v>
+        <v>0.999511510304276</v>
       </c>
       <c r="E18">
-        <v>0.9696653776388875</v>
+        <v>0.983736324612266</v>
       </c>
       <c r="F18">
-        <v>0.9692318169663814</v>
+        <v>0.9846738808371477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027693643300009</v>
+        <v>1.037612878896965</v>
       </c>
       <c r="J18">
-        <v>0.9833468330927534</v>
+        <v>1.003378941109944</v>
       </c>
       <c r="K18">
-        <v>0.9960465479721344</v>
+        <v>1.013338681047278</v>
       </c>
       <c r="L18">
-        <v>0.9840291090363164</v>
+        <v>0.9978418224869529</v>
       </c>
       <c r="M18">
-        <v>0.9836036606299887</v>
+        <v>0.9987625132065041</v>
       </c>
       <c r="N18">
-        <v>0.9847432983872033</v>
+        <v>1.004803854295493</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9553005985684152</v>
+        <v>0.9757825805106722</v>
       </c>
       <c r="D19">
-        <v>0.9825491016508545</v>
+        <v>0.9998341345864695</v>
       </c>
       <c r="E19">
-        <v>0.9704173484908631</v>
+        <v>0.9842395643283455</v>
       </c>
       <c r="F19">
-        <v>0.9700626724801655</v>
+        <v>0.9852125869706286</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027931529114745</v>
+        <v>1.037741342124161</v>
       </c>
       <c r="J19">
-        <v>0.9840203199297768</v>
+        <v>1.003652593456265</v>
       </c>
       <c r="K19">
-        <v>0.9966098137574723</v>
+        <v>1.013591172891799</v>
       </c>
       <c r="L19">
-        <v>0.9846996251853434</v>
+        <v>0.9982699662573293</v>
       </c>
       <c r="M19">
-        <v>0.9843515354464893</v>
+        <v>0.9992256037353022</v>
       </c>
       <c r="N19">
-        <v>0.9854177416527855</v>
+        <v>1.005077895259534</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9514453393061266</v>
+        <v>0.9738453638213257</v>
       </c>
       <c r="D20">
-        <v>0.97966117641563</v>
+        <v>0.998385148984183</v>
       </c>
       <c r="E20">
-        <v>0.9670310644538539</v>
+        <v>0.9819797231281352</v>
       </c>
       <c r="F20">
-        <v>0.9663208562927789</v>
+        <v>0.9827933465221347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0268586112524</v>
+        <v>1.037163090496002</v>
       </c>
       <c r="J20">
-        <v>0.9809853697429645</v>
+        <v>1.002423112012347</v>
       </c>
       <c r="K20">
-        <v>0.9940713426462994</v>
+        <v>1.012456453157788</v>
       </c>
       <c r="L20">
-        <v>0.9816795109318137</v>
+        <v>0.9963470152863404</v>
       </c>
       <c r="M20">
-        <v>0.9809829438155232</v>
+        <v>0.9971456558008266</v>
       </c>
       <c r="N20">
-        <v>0.982378481488594</v>
+        <v>1.003846667810943</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383648357072141</v>
+        <v>0.9673964117544954</v>
       </c>
       <c r="D21">
-        <v>0.9698782749209424</v>
+        <v>0.9935631025275323</v>
       </c>
       <c r="E21">
-        <v>0.9555830430105029</v>
+        <v>0.9744636111479464</v>
       </c>
       <c r="F21">
-        <v>0.9536648926583159</v>
+        <v>0.9747446653553764</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02320142938112</v>
+        <v>1.035215894698641</v>
       </c>
       <c r="J21">
-        <v>0.9706863292543608</v>
+        <v>0.9983234793520537</v>
       </c>
       <c r="K21">
-        <v>0.985453702066704</v>
+        <v>1.008667458756235</v>
       </c>
       <c r="L21">
-        <v>0.9714577708653304</v>
+        <v>0.9899454848177759</v>
       </c>
       <c r="M21">
-        <v>0.9695806865065874</v>
+        <v>0.9902208424572859</v>
       </c>
       <c r="N21">
-        <v>0.9720648151811799</v>
+        <v>0.9997412132020371</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9296694632335694</v>
+        <v>0.9632190282508012</v>
       </c>
       <c r="D22">
-        <v>0.9633897003803148</v>
+        <v>0.9904414333987777</v>
       </c>
       <c r="E22">
-        <v>0.9480079878697455</v>
+        <v>0.9695992125421924</v>
       </c>
       <c r="F22">
-        <v>0.9452850226731223</v>
+        <v>0.9695336934019259</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020758302770273</v>
+        <v>1.033937897866625</v>
       </c>
       <c r="J22">
-        <v>0.9638399916298284</v>
+        <v>0.9956629782100848</v>
       </c>
       <c r="K22">
-        <v>0.9797230566519652</v>
+        <v>1.006204655703673</v>
       </c>
       <c r="L22">
-        <v>0.9646849100321158</v>
+        <v>0.9857979679242664</v>
       </c>
       <c r="M22">
-        <v>0.9620243219960894</v>
+        <v>0.9857338570786476</v>
       </c>
       <c r="N22">
-        <v>0.9652087549719348</v>
+        <v>0.9970769338432829</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9343274264410093</v>
+        <v>0.9654456423416502</v>
       </c>
       <c r="D23">
-        <v>0.9668639691148339</v>
+        <v>0.9921051166999945</v>
       </c>
       <c r="E23">
-        <v>0.9520623335602475</v>
+        <v>0.9721916878576236</v>
       </c>
       <c r="F23">
-        <v>0.9497707016355073</v>
+        <v>0.9723110549295472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022068081638215</v>
+        <v>1.034620627281124</v>
       </c>
       <c r="J23">
-        <v>0.9675073568416542</v>
+        <v>0.9970815132966568</v>
       </c>
       <c r="K23">
-        <v>0.9827929275968463</v>
+        <v>1.007518131980428</v>
       </c>
       <c r="L23">
-        <v>0.968310776759561</v>
+        <v>0.9880087965959232</v>
       </c>
       <c r="M23">
-        <v>0.9660697933401491</v>
+        <v>0.9881256762360471</v>
       </c>
       <c r="N23">
-        <v>0.9688813282630145</v>
+        <v>0.9984974834123861</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9516574127632201</v>
+        <v>0.9739515039334492</v>
       </c>
       <c r="D24">
-        <v>0.9798199868029912</v>
+        <v>0.9984645345166274</v>
       </c>
       <c r="E24">
-        <v>0.9672171954206906</v>
+        <v>0.9821035119689343</v>
       </c>
       <c r="F24">
-        <v>0.966526549571629</v>
+        <v>0.9829258757797192</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026917695626168</v>
+        <v>1.037194856471339</v>
       </c>
       <c r="J24">
-        <v>0.9811523284813233</v>
+        <v>1.002490500883008</v>
       </c>
       <c r="K24">
-        <v>0.9942110028520854</v>
+        <v>1.012518668412383</v>
       </c>
       <c r="L24">
-        <v>0.9818455572310809</v>
+        <v>0.9964523721577695</v>
       </c>
       <c r="M24">
-        <v>0.9811681523852015</v>
+        <v>0.9972596169050618</v>
       </c>
       <c r="N24">
-        <v>0.9825456773275117</v>
+        <v>1.003914152381529</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9700334702471217</v>
+        <v>0.9833321461740419</v>
       </c>
       <c r="D25">
-        <v>0.9936018506841282</v>
+        <v>1.005481866034854</v>
       </c>
       <c r="E25">
-        <v>0.9834098503227865</v>
+        <v>0.9930585333560712</v>
       </c>
       <c r="F25">
-        <v>0.984412567258159</v>
+        <v>0.9946502008406166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032005899097727</v>
+        <v>1.039961890994591</v>
       </c>
       <c r="J25">
-        <v>0.995613195320157</v>
+        <v>1.008433771572853</v>
       </c>
       <c r="K25">
-        <v>1.006300308362525</v>
+        <v>1.017995674982994</v>
       </c>
       <c r="L25">
-        <v>0.9962712848807427</v>
+        <v>1.005765570958971</v>
       </c>
       <c r="M25">
-        <v>0.9972577755827567</v>
+        <v>1.00733213715186</v>
       </c>
       <c r="N25">
-        <v>0.9970270802559416</v>
+        <v>1.009865863197456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.990461954797596</v>
+        <v>1.022515186447222</v>
       </c>
       <c r="D2">
-        <v>1.010814701777381</v>
+        <v>1.027322072015636</v>
       </c>
       <c r="E2">
-        <v>1.001409935827771</v>
+        <v>1.047234263971629</v>
       </c>
       <c r="F2">
-        <v>1.003582105100866</v>
+        <v>1.051171857721807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042004576084691</v>
+        <v>1.028889589830776</v>
       </c>
       <c r="J2">
-        <v>1.012931738467414</v>
+        <v>1.027700590172546</v>
       </c>
       <c r="K2">
-        <v>1.022125398973845</v>
+        <v>1.030142139068718</v>
       </c>
       <c r="L2">
-        <v>1.012849662892034</v>
+        <v>1.049997471588898</v>
       </c>
       <c r="M2">
-        <v>1.014991760077553</v>
+        <v>1.05392409815486</v>
       </c>
       <c r="N2">
-        <v>1.014370217720933</v>
+        <v>1.029160042889497</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9954533408610987</v>
+        <v>1.023519491162126</v>
       </c>
       <c r="D3">
-        <v>1.014545918624639</v>
+        <v>1.028068211800912</v>
       </c>
       <c r="E3">
-        <v>1.007273568450803</v>
+        <v>1.048536183682562</v>
       </c>
       <c r="F3">
-        <v>1.00984993700783</v>
+        <v>1.052558003099678</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043398261560277</v>
+        <v>1.02906534233552</v>
       </c>
       <c r="J3">
-        <v>1.016068724487189</v>
+        <v>1.028342692500329</v>
       </c>
       <c r="K3">
-        <v>1.024996004146675</v>
+        <v>1.030696146038918</v>
       </c>
       <c r="L3">
-        <v>1.017814220912175</v>
+        <v>1.05110992339183</v>
       </c>
       <c r="M3">
-        <v>1.020358318463439</v>
+        <v>1.055121361341492</v>
       </c>
       <c r="N3">
-        <v>1.017511658620672</v>
+        <v>1.029803057076235</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9986028398158903</v>
+        <v>1.024168644843595</v>
       </c>
       <c r="D4">
-        <v>1.016898733169326</v>
+        <v>1.02854985966099</v>
       </c>
       <c r="E4">
-        <v>1.010982112448364</v>
+        <v>1.049379044747758</v>
       </c>
       <c r="F4">
-        <v>1.013812578832615</v>
+        <v>1.053455258724909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044260379552798</v>
+        <v>1.029176753343894</v>
       </c>
       <c r="J4">
-        <v>1.018042352742902</v>
+        <v>1.02875691907697</v>
       </c>
       <c r="K4">
-        <v>1.026797395422736</v>
+        <v>1.031052812161136</v>
       </c>
       <c r="L4">
-        <v>1.020949775640702</v>
+        <v>1.051829639490132</v>
       </c>
       <c r="M4">
-        <v>1.023747108226506</v>
+        <v>1.05589586779679</v>
       </c>
       <c r="N4">
-        <v>1.019488089654887</v>
+        <v>1.030217871902127</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9999084415950082</v>
+        <v>1.024441382265813</v>
       </c>
       <c r="D5">
-        <v>1.017873630522758</v>
+        <v>1.028752067511025</v>
       </c>
       <c r="E5">
-        <v>1.012521653427379</v>
+        <v>1.04973348934201</v>
       </c>
       <c r="F5">
-        <v>1.015457236263457</v>
+        <v>1.053832545763459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044613547921486</v>
+        <v>1.029223036488132</v>
       </c>
       <c r="J5">
-        <v>1.018859084068272</v>
+        <v>1.028930759126268</v>
       </c>
       <c r="K5">
-        <v>1.027541703438387</v>
+        <v>1.031202320126545</v>
       </c>
       <c r="L5">
-        <v>1.022250395471873</v>
+        <v>1.052132182791583</v>
       </c>
       <c r="M5">
-        <v>1.025152603412574</v>
+        <v>1.056221423853749</v>
       </c>
       <c r="N5">
-        <v>1.020305980832419</v>
+        <v>1.030391958824235</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000126597526237</v>
+        <v>1.024487166312043</v>
       </c>
       <c r="D6">
-        <v>1.018036499976596</v>
+        <v>1.028786002844958</v>
       </c>
       <c r="E6">
-        <v>1.012779030769231</v>
+        <v>1.0497930084228</v>
       </c>
       <c r="F6">
-        <v>1.015732165187229</v>
+        <v>1.053895898727124</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044672309649907</v>
+        <v>1.029230775130462</v>
       </c>
       <c r="J6">
-        <v>1.018995468844172</v>
+        <v>1.028959929996554</v>
       </c>
       <c r="K6">
-        <v>1.027665925868138</v>
+        <v>1.031227397684115</v>
       </c>
       <c r="L6">
-        <v>1.022467768239416</v>
+        <v>1.052182979717557</v>
       </c>
       <c r="M6">
-        <v>1.025387494070104</v>
+        <v>1.056276083485348</v>
       </c>
       <c r="N6">
-        <v>1.020442559290345</v>
+        <v>1.030421171120503</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9986203568365561</v>
+        <v>1.024172289829182</v>
       </c>
       <c r="D7">
-        <v>1.016911815047013</v>
+        <v>1.028552562660959</v>
       </c>
       <c r="E7">
-        <v>1.011002759380928</v>
+        <v>1.049383780435057</v>
       </c>
       <c r="F7">
-        <v>1.013834636943635</v>
+        <v>1.053460299732262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044265134713513</v>
+        <v>1.029177373959079</v>
       </c>
       <c r="J7">
-        <v>1.018053316349748</v>
+        <v>1.028759243118182</v>
       </c>
       <c r="K7">
-        <v>1.026807391422642</v>
+        <v>1.031054811601532</v>
       </c>
       <c r="L7">
-        <v>1.020967222555791</v>
+        <v>1.051833682185522</v>
       </c>
       <c r="M7">
-        <v>1.023765962636266</v>
+        <v>1.055900218072674</v>
       </c>
       <c r="N7">
-        <v>1.019499068831312</v>
+        <v>1.030220199243744</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9921659131696543</v>
+        <v>1.022854740868141</v>
       </c>
       <c r="D8">
-        <v>1.012088738762788</v>
+        <v>1.027574472180263</v>
       </c>
       <c r="E8">
-        <v>1.003409907844662</v>
+        <v>1.047674165834534</v>
       </c>
       <c r="F8">
-        <v>1.005720267576177</v>
+        <v>1.051640245877543</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042483943544439</v>
+        <v>1.028949464818814</v>
       </c>
       <c r="J8">
-        <v>1.014003832264105</v>
+        <v>1.02791785185789</v>
       </c>
       <c r="K8">
-        <v>1.023107412861162</v>
+        <v>1.030329743606959</v>
       </c>
       <c r="L8">
-        <v>1.014543887030979</v>
+        <v>1.050373454873257</v>
       </c>
       <c r="M8">
-        <v>1.016823307732736</v>
+        <v>1.05432876213717</v>
       </c>
       <c r="N8">
-        <v>1.015443834013785</v>
+        <v>1.029377613111354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9801405311103676</v>
+        <v>1.020527678471264</v>
       </c>
       <c r="D9">
-        <v>1.003094195281514</v>
+        <v>1.025842131748694</v>
       </c>
       <c r="E9">
-        <v>0.9893276783994691</v>
+        <v>1.044664807429832</v>
       </c>
       <c r="F9">
-        <v>0.9906583068184368</v>
+        <v>1.048435468803613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039029839153068</v>
+        <v>1.028530164685231</v>
       </c>
       <c r="J9">
-        <v>1.006414610417669</v>
+        <v>1.026425586997832</v>
       </c>
       <c r="K9">
-        <v>1.016137270012741</v>
+        <v>1.029038205797236</v>
       </c>
       <c r="L9">
-        <v>1.002596312757637</v>
+        <v>1.047799376176409</v>
       </c>
       <c r="M9">
-        <v>1.003904786859692</v>
+        <v>1.05155800706111</v>
       </c>
       <c r="N9">
-        <v>1.007843834601832</v>
+        <v>1.027883229064029</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.971628955659551</v>
+        <v>1.018972656081374</v>
       </c>
       <c r="D10">
-        <v>0.996727566798582</v>
+        <v>1.024681333723657</v>
       </c>
       <c r="E10">
-        <v>0.9793954585583645</v>
+        <v>1.04266056855094</v>
       </c>
       <c r="F10">
-        <v>0.9800263815993105</v>
+        <v>1.046300397346572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036497607430149</v>
+        <v>1.028238754602909</v>
       </c>
       <c r="J10">
-        <v>1.001015251090285</v>
+        <v>1.025424265143034</v>
       </c>
       <c r="K10">
-        <v>1.011156158481732</v>
+        <v>1.028167866056484</v>
       </c>
       <c r="L10">
-        <v>0.9941469739013618</v>
+        <v>1.046082537279574</v>
       </c>
       <c r="M10">
-        <v>0.9947658798602838</v>
+        <v>1.049709593033122</v>
       </c>
       <c r="N10">
-        <v>1.002436807564887</v>
+        <v>1.026880485217345</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9678119608012956</v>
+        <v>1.018298440015977</v>
       </c>
       <c r="D11">
-        <v>0.9938737248474253</v>
+        <v>1.024177299146948</v>
       </c>
       <c r="E11">
-        <v>0.9749476568026418</v>
+        <v>1.04179315089983</v>
       </c>
       <c r="F11">
-        <v>0.9752631178733562</v>
+        <v>1.045376194484082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035342338156485</v>
+        <v>1.028109757505499</v>
       </c>
       <c r="J11">
-        <v>0.9985879355246339</v>
+        <v>1.02498914248409</v>
       </c>
       <c r="K11">
-        <v>1.00891210596232</v>
+        <v>1.027788791985119</v>
       </c>
       <c r="L11">
-        <v>0.9903580101729828</v>
+        <v>1.04533891030887</v>
       </c>
       <c r="M11">
-        <v>0.9906671154195519</v>
+        <v>1.048908883443484</v>
       </c>
       <c r="N11">
-        <v>1.000006044932716</v>
+        <v>1.026444744634316</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9663730860345867</v>
+        <v>1.018047872851104</v>
       </c>
       <c r="D12">
-        <v>0.9927982341915632</v>
+        <v>1.023989867929502</v>
       </c>
       <c r="E12">
-        <v>0.9732717371259675</v>
+        <v>1.041471015066514</v>
       </c>
       <c r="F12">
-        <v>0.9734680084431768</v>
+        <v>1.045032945804039</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034903975222776</v>
+        <v>1.028061419582641</v>
       </c>
       <c r="J12">
-        <v>0.9976720744340263</v>
+        <v>1.024827286283051</v>
       </c>
       <c r="K12">
-        <v>1.008064721645338</v>
+        <v>1.027647654806617</v>
       </c>
       <c r="L12">
-        <v>0.9889295709310656</v>
+        <v>1.045062657742417</v>
       </c>
       <c r="M12">
-        <v>0.9891218055353219</v>
+        <v>1.048611411299885</v>
       </c>
       <c r="N12">
-        <v>0.9990888832143091</v>
+        <v>1.026282658578906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9666827058143115</v>
+        <v>1.018101626405552</v>
       </c>
       <c r="D13">
-        <v>0.9930296443423959</v>
+        <v>1.024030082076816</v>
       </c>
       <c r="E13">
-        <v>0.9736323342628748</v>
+        <v>1.041540111553111</v>
       </c>
       <c r="F13">
-        <v>0.9738542656446814</v>
+        <v>1.045106571989088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034998430904682</v>
+        <v>1.028071807354137</v>
       </c>
       <c r="J13">
-        <v>0.9978691885483496</v>
+        <v>1.024862015504163</v>
       </c>
       <c r="K13">
-        <v>1.008247127566167</v>
+        <v>1.027677944242664</v>
       </c>
       <c r="L13">
-        <v>0.9892369536577926</v>
+        <v>1.045121916546057</v>
       </c>
       <c r="M13">
-        <v>0.9894543406430301</v>
+        <v>1.048675222524911</v>
       </c>
       <c r="N13">
-        <v>0.999286277253284</v>
+        <v>1.026317437119495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9676934609575646</v>
+        <v>1.018277730780604</v>
       </c>
       <c r="D14">
-        <v>0.9937851448454673</v>
+        <v>1.02416181031366</v>
       </c>
       <c r="E14">
-        <v>0.9748096209253214</v>
+        <v>1.041766521810286</v>
       </c>
       <c r="F14">
-        <v>0.975115271645257</v>
+        <v>1.045347820615033</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035306294034278</v>
+        <v>1.028105770498651</v>
       </c>
       <c r="J14">
-        <v>0.9985125258448896</v>
+        <v>1.02497576814037</v>
       </c>
       <c r="K14">
-        <v>1.008842347844583</v>
+        <v>1.027777132318438</v>
       </c>
       <c r="L14">
-        <v>0.9902403733336778</v>
+        <v>1.045316075943654</v>
       </c>
       <c r="M14">
-        <v>0.9905398553589538</v>
+        <v>1.048884295399429</v>
       </c>
       <c r="N14">
-        <v>0.9999305281625769</v>
+        <v>1.026431351297493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9683133864095177</v>
+        <v>1.018386216807039</v>
       </c>
       <c r="D15">
-        <v>0.9942485595863615</v>
+        <v>1.02424294456257</v>
       </c>
       <c r="E15">
-        <v>0.9755317772851384</v>
+        <v>1.041906028727211</v>
       </c>
       <c r="F15">
-        <v>0.9758887391467602</v>
+        <v>1.045496467246449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035494740755939</v>
+        <v>1.028126640312662</v>
       </c>
       <c r="J15">
-        <v>0.9989069932843976</v>
+        <v>1.025045824104877</v>
       </c>
       <c r="K15">
-        <v>1.00920722497027</v>
+        <v>1.027838201347438</v>
       </c>
       <c r="L15">
-        <v>0.9908557777565369</v>
+        <v>1.045435699052805</v>
       </c>
       <c r="M15">
-        <v>0.9912055996056117</v>
+        <v>1.049013104998729</v>
       </c>
       <c r="N15">
-        <v>1.000325555791095</v>
+        <v>1.026501506749505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9718793974594534</v>
+        <v>1.019017382938848</v>
       </c>
       <c r="D16">
-        <v>0.9969148499778588</v>
+        <v>1.024714755331326</v>
       </c>
       <c r="E16">
-        <v>0.9796874033929033</v>
+        <v>1.042718145024396</v>
       </c>
       <c r="F16">
-        <v>0.9803389881453516</v>
+        <v>1.046361739632057</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036573005836157</v>
+        <v>1.028247256432709</v>
       </c>
       <c r="J16">
-        <v>1.001174392815367</v>
+        <v>1.025453110247595</v>
       </c>
       <c r="K16">
-        <v>1.011303189808211</v>
+        <v>1.028192977368462</v>
       </c>
       <c r="L16">
-        <v>0.9943955667708542</v>
+        <v>1.046131884395621</v>
       </c>
       <c r="M16">
-        <v>0.9950347875962703</v>
+        <v>1.049762726217283</v>
       </c>
       <c r="N16">
-        <v>1.002596175289473</v>
+        <v>1.026909371285262</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9740801755637609</v>
+        <v>1.019413060234624</v>
       </c>
       <c r="D17">
-        <v>0.9985607728200742</v>
+        <v>1.025010334727035</v>
       </c>
       <c r="E17">
-        <v>0.9822535830138187</v>
+        <v>1.043227677365593</v>
       </c>
       <c r="F17">
-        <v>0.9830865415870116</v>
+        <v>1.046904579421737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037233352922734</v>
+        <v>1.028322162336946</v>
       </c>
       <c r="J17">
-        <v>1.00257219120793</v>
+        <v>1.025708176553344</v>
       </c>
       <c r="K17">
-        <v>1.01259408404828</v>
+        <v>1.028414927007574</v>
       </c>
       <c r="L17">
-        <v>0.9965800944555067</v>
+        <v>1.046568521097218</v>
       </c>
       <c r="M17">
-        <v>0.9973977695840865</v>
+        <v>1.050232852410662</v>
       </c>
       <c r="N17">
-        <v>1.003995958716083</v>
+        <v>1.027164799814422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9753512673236624</v>
+        <v>1.019643767155401</v>
       </c>
       <c r="D18">
-        <v>0.999511510304276</v>
+        <v>1.025182605962949</v>
       </c>
       <c r="E18">
-        <v>0.983736324612266</v>
+        <v>1.043524920750869</v>
       </c>
       <c r="F18">
-        <v>0.9846738808371477</v>
+        <v>1.047221237576776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037612878896965</v>
+        <v>1.028365582101543</v>
       </c>
       <c r="J18">
-        <v>1.003378941109944</v>
+        <v>1.025856803494892</v>
       </c>
       <c r="K18">
-        <v>1.013338681047278</v>
+        <v>1.028544173125907</v>
       </c>
       <c r="L18">
-        <v>0.9978418224869529</v>
+        <v>1.046823182427325</v>
       </c>
       <c r="M18">
-        <v>0.9987625132065041</v>
+        <v>1.050507037013043</v>
       </c>
       <c r="N18">
-        <v>1.004803854295493</v>
+        <v>1.027313637823275</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9757825805106722</v>
+        <v>1.019722417871948</v>
       </c>
       <c r="D19">
-        <v>0.9998341345864695</v>
+        <v>1.025241323059447</v>
       </c>
       <c r="E19">
-        <v>0.9842395643283455</v>
+        <v>1.043626280244958</v>
       </c>
       <c r="F19">
-        <v>0.9852125869706286</v>
+        <v>1.047329214822856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037741342124161</v>
+        <v>1.028380341047729</v>
       </c>
       <c r="J19">
-        <v>1.003652593456265</v>
+        <v>1.025907456192239</v>
       </c>
       <c r="K19">
-        <v>1.013591172891799</v>
+        <v>1.028588206523298</v>
       </c>
       <c r="L19">
-        <v>0.9982699662573293</v>
+        <v>1.04691001179965</v>
       </c>
       <c r="M19">
-        <v>0.9992256037353022</v>
+        <v>1.050600521523855</v>
       </c>
       <c r="N19">
-        <v>1.005077895259534</v>
+        <v>1.027364362453262</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9738453638213257</v>
+        <v>1.019370616598776</v>
       </c>
       <c r="D20">
-        <v>0.998385148984183</v>
+        <v>1.024978635840457</v>
       </c>
       <c r="E20">
-        <v>0.9819797231281352</v>
+        <v>1.043173005066546</v>
       </c>
       <c r="F20">
-        <v>0.9827933465221347</v>
+        <v>1.046846334884424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037163090496002</v>
+        <v>1.028314153731731</v>
       </c>
       <c r="J20">
-        <v>1.002423112012347</v>
+        <v>1.025680825758409</v>
       </c>
       <c r="K20">
-        <v>1.012456453157788</v>
+        <v>1.028391135979374</v>
       </c>
       <c r="L20">
-        <v>0.9963470152863404</v>
+        <v>1.046521676351303</v>
       </c>
       <c r="M20">
-        <v>0.9971456558008266</v>
+        <v>1.050182415654186</v>
       </c>
       <c r="N20">
-        <v>1.003846667810943</v>
+        <v>1.027137410178221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9673964117544954</v>
+        <v>1.018225876118614</v>
       </c>
       <c r="D21">
-        <v>0.9935631025275323</v>
+        <v>1.024123025435821</v>
       </c>
       <c r="E21">
-        <v>0.9744636111479464</v>
+        <v>1.04169984795388</v>
       </c>
       <c r="F21">
-        <v>0.9747446653553764</v>
+        <v>1.045276777790465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035215894698641</v>
+        <v>1.028095780864918</v>
       </c>
       <c r="J21">
-        <v>0.9983234793520537</v>
+        <v>1.024942277238934</v>
       </c>
       <c r="K21">
-        <v>1.008667458756235</v>
+        <v>1.027747933072315</v>
       </c>
       <c r="L21">
-        <v>0.9899454848177759</v>
+        <v>1.045258901866774</v>
       </c>
       <c r="M21">
-        <v>0.9902208424572859</v>
+        <v>1.048822730132736</v>
       </c>
       <c r="N21">
-        <v>0.9997412132020371</v>
+        <v>1.026397812835136</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9632190282508012</v>
+        <v>1.017505360651482</v>
       </c>
       <c r="D22">
-        <v>0.9904414333987777</v>
+        <v>1.023583852378534</v>
       </c>
       <c r="E22">
-        <v>0.9695992125421924</v>
+        <v>1.0407739710918</v>
       </c>
       <c r="F22">
-        <v>0.9695336934019259</v>
+        <v>1.044290172945404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033937897866625</v>
+        <v>1.027956035904602</v>
       </c>
       <c r="J22">
-        <v>0.9956629782100848</v>
+        <v>1.024476578435754</v>
       </c>
       <c r="K22">
-        <v>1.006204655703673</v>
+        <v>1.027341603923712</v>
       </c>
       <c r="L22">
-        <v>0.9857979679242664</v>
+        <v>1.044464733496713</v>
       </c>
       <c r="M22">
-        <v>0.9857338570786476</v>
+        <v>1.047967534154477</v>
       </c>
       <c r="N22">
-        <v>0.9970769338432829</v>
+        <v>1.025931452686238</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9654456423416502</v>
+        <v>1.017887392992781</v>
       </c>
       <c r="D23">
-        <v>0.9921051166999945</v>
+        <v>1.023869793496034</v>
       </c>
       <c r="E23">
-        <v>0.9721916878576236</v>
+        <v>1.041264763259974</v>
       </c>
       <c r="F23">
-        <v>0.9723110549295472</v>
+        <v>1.044813169364519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034620627281124</v>
+        <v>1.028030349070218</v>
       </c>
       <c r="J23">
-        <v>0.9970815132966568</v>
+        <v>1.024723581702549</v>
       </c>
       <c r="K23">
-        <v>1.007518131980428</v>
+        <v>1.027557188870151</v>
       </c>
       <c r="L23">
-        <v>0.9880087965959232</v>
+        <v>1.044885758163928</v>
       </c>
       <c r="M23">
-        <v>0.9881256762360471</v>
+        <v>1.048420919814453</v>
       </c>
       <c r="N23">
-        <v>0.9984974834123861</v>
+        <v>1.026178806726004</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9739515039334492</v>
+        <v>1.019389795312966</v>
       </c>
       <c r="D24">
-        <v>0.9984645345166274</v>
+        <v>1.024992959620506</v>
       </c>
       <c r="E24">
-        <v>0.9821035119689343</v>
+        <v>1.043197708995257</v>
       </c>
       <c r="F24">
-        <v>0.9829258757797192</v>
+        <v>1.046872652993646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037194856471339</v>
+        <v>1.028317773314766</v>
       </c>
       <c r="J24">
-        <v>1.002490500883008</v>
+        <v>1.025693184865242</v>
       </c>
       <c r="K24">
-        <v>1.012518668412383</v>
+        <v>1.028401886779988</v>
       </c>
       <c r="L24">
-        <v>0.9964523721577695</v>
+        <v>1.046542843541232</v>
       </c>
       <c r="M24">
-        <v>0.9972596169050618</v>
+        <v>1.05020520595173</v>
       </c>
       <c r="N24">
-        <v>1.003914152381529</v>
+        <v>1.027149786836403</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9833321461740419</v>
+        <v>1.021129920137617</v>
       </c>
       <c r="D25">
-        <v>1.005481866034854</v>
+        <v>1.026291025768108</v>
       </c>
       <c r="E25">
-        <v>0.9930585333560712</v>
+        <v>1.045442435016374</v>
       </c>
       <c r="F25">
-        <v>0.9946502008406166</v>
+        <v>1.049263713723861</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039961890994591</v>
+        <v>1.028640658615852</v>
       </c>
       <c r="J25">
-        <v>1.008433771572853</v>
+        <v>1.026812514586521</v>
       </c>
       <c r="K25">
-        <v>1.017995674982994</v>
+        <v>1.029373742017303</v>
       </c>
       <c r="L25">
-        <v>1.005765570958971</v>
+        <v>1.048464966049637</v>
       </c>
       <c r="M25">
-        <v>1.00733213715186</v>
+        <v>1.052274522972573</v>
       </c>
       <c r="N25">
-        <v>1.009865863197456</v>
+        <v>1.028270706134276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022515186447222</v>
+        <v>0.9904619547975961</v>
       </c>
       <c r="D2">
-        <v>1.027322072015636</v>
+        <v>1.010814701777381</v>
       </c>
       <c r="E2">
-        <v>1.047234263971629</v>
+        <v>1.00140993582777</v>
       </c>
       <c r="F2">
-        <v>1.051171857721807</v>
+        <v>1.003582105100866</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028889589830776</v>
+        <v>1.042004576084691</v>
       </c>
       <c r="J2">
-        <v>1.027700590172546</v>
+        <v>1.012931738467414</v>
       </c>
       <c r="K2">
-        <v>1.030142139068718</v>
+        <v>1.022125398973845</v>
       </c>
       <c r="L2">
-        <v>1.049997471588898</v>
+        <v>1.012849662892034</v>
       </c>
       <c r="M2">
-        <v>1.05392409815486</v>
+        <v>1.014991760077553</v>
       </c>
       <c r="N2">
-        <v>1.029160042889497</v>
+        <v>1.014370217720932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023519491162126</v>
+        <v>0.9954533408610993</v>
       </c>
       <c r="D3">
-        <v>1.028068211800912</v>
+        <v>1.01454591862464</v>
       </c>
       <c r="E3">
-        <v>1.048536183682562</v>
+        <v>1.007273568450803</v>
       </c>
       <c r="F3">
-        <v>1.052558003099678</v>
+        <v>1.00984993700783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02906534233552</v>
+        <v>1.043398261560277</v>
       </c>
       <c r="J3">
-        <v>1.028342692500329</v>
+        <v>1.016068724487189</v>
       </c>
       <c r="K3">
-        <v>1.030696146038918</v>
+        <v>1.024996004146676</v>
       </c>
       <c r="L3">
-        <v>1.05110992339183</v>
+        <v>1.017814220912175</v>
       </c>
       <c r="M3">
-        <v>1.055121361341492</v>
+        <v>1.02035831846344</v>
       </c>
       <c r="N3">
-        <v>1.029803057076235</v>
+        <v>1.017511658620673</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024168644843595</v>
+        <v>0.9986028398158914</v>
       </c>
       <c r="D4">
-        <v>1.02854985966099</v>
+        <v>1.016898733169328</v>
       </c>
       <c r="E4">
-        <v>1.049379044747758</v>
+        <v>1.010982112448364</v>
       </c>
       <c r="F4">
-        <v>1.053455258724909</v>
+        <v>1.013812578832615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029176753343894</v>
+        <v>1.044260379552799</v>
       </c>
       <c r="J4">
-        <v>1.02875691907697</v>
+        <v>1.018042352742903</v>
       </c>
       <c r="K4">
-        <v>1.031052812161136</v>
+        <v>1.026797395422737</v>
       </c>
       <c r="L4">
-        <v>1.051829639490132</v>
+        <v>1.020949775640703</v>
       </c>
       <c r="M4">
-        <v>1.05589586779679</v>
+        <v>1.023747108226507</v>
       </c>
       <c r="N4">
-        <v>1.030217871902127</v>
+        <v>1.019488089654887</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024441382265813</v>
+        <v>0.9999084415950075</v>
       </c>
       <c r="D5">
-        <v>1.028752067511025</v>
+        <v>1.017873630522757</v>
       </c>
       <c r="E5">
-        <v>1.04973348934201</v>
+        <v>1.012521653427378</v>
       </c>
       <c r="F5">
-        <v>1.053832545763459</v>
+        <v>1.015457236263456</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029223036488132</v>
+        <v>1.044613547921486</v>
       </c>
       <c r="J5">
-        <v>1.028930759126268</v>
+        <v>1.018859084068271</v>
       </c>
       <c r="K5">
-        <v>1.031202320126545</v>
+        <v>1.027541703438386</v>
       </c>
       <c r="L5">
-        <v>1.052132182791583</v>
+        <v>1.022250395471872</v>
       </c>
       <c r="M5">
-        <v>1.056221423853749</v>
+        <v>1.025152603412573</v>
       </c>
       <c r="N5">
-        <v>1.030391958824235</v>
+        <v>1.020305980832418</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024487166312043</v>
+        <v>1.000126597526237</v>
       </c>
       <c r="D6">
-        <v>1.028786002844958</v>
+        <v>1.018036499976596</v>
       </c>
       <c r="E6">
-        <v>1.0497930084228</v>
+        <v>1.01277903076923</v>
       </c>
       <c r="F6">
-        <v>1.053895898727124</v>
+        <v>1.015732165187228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029230775130462</v>
+        <v>1.044672309649907</v>
       </c>
       <c r="J6">
-        <v>1.028959929996554</v>
+        <v>1.018995468844172</v>
       </c>
       <c r="K6">
-        <v>1.031227397684115</v>
+        <v>1.027665925868138</v>
       </c>
       <c r="L6">
-        <v>1.052182979717557</v>
+        <v>1.022467768239415</v>
       </c>
       <c r="M6">
-        <v>1.056276083485348</v>
+        <v>1.025387494070104</v>
       </c>
       <c r="N6">
-        <v>1.030421171120503</v>
+        <v>1.020442559290344</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024172289829182</v>
+        <v>0.9986203568365567</v>
       </c>
       <c r="D7">
-        <v>1.028552562660959</v>
+        <v>1.016911815047013</v>
       </c>
       <c r="E7">
-        <v>1.049383780435057</v>
+        <v>1.011002759380928</v>
       </c>
       <c r="F7">
-        <v>1.053460299732262</v>
+        <v>1.013834636943635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029177373959079</v>
+        <v>1.044265134713513</v>
       </c>
       <c r="J7">
-        <v>1.028759243118182</v>
+        <v>1.018053316349748</v>
       </c>
       <c r="K7">
-        <v>1.031054811601532</v>
+        <v>1.026807391422642</v>
       </c>
       <c r="L7">
-        <v>1.051833682185522</v>
+        <v>1.020967222555791</v>
       </c>
       <c r="M7">
-        <v>1.055900218072674</v>
+        <v>1.023765962636266</v>
       </c>
       <c r="N7">
-        <v>1.030220199243744</v>
+        <v>1.019499068831312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022854740868141</v>
+        <v>0.9921659131696546</v>
       </c>
       <c r="D8">
-        <v>1.027574472180263</v>
+        <v>1.012088738762788</v>
       </c>
       <c r="E8">
-        <v>1.047674165834534</v>
+        <v>1.003409907844662</v>
       </c>
       <c r="F8">
-        <v>1.051640245877543</v>
+        <v>1.005720267576178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028949464818814</v>
+        <v>1.042483943544439</v>
       </c>
       <c r="J8">
-        <v>1.02791785185789</v>
+        <v>1.014003832264105</v>
       </c>
       <c r="K8">
-        <v>1.030329743606959</v>
+        <v>1.023107412861162</v>
       </c>
       <c r="L8">
-        <v>1.050373454873257</v>
+        <v>1.014543887030979</v>
       </c>
       <c r="M8">
-        <v>1.05432876213717</v>
+        <v>1.016823307732736</v>
       </c>
       <c r="N8">
-        <v>1.029377613111354</v>
+        <v>1.015443834013785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020527678471264</v>
+        <v>0.9801405311103677</v>
       </c>
       <c r="D9">
-        <v>1.025842131748694</v>
+        <v>1.003094195281515</v>
       </c>
       <c r="E9">
-        <v>1.044664807429832</v>
+        <v>0.9893276783994692</v>
       </c>
       <c r="F9">
-        <v>1.048435468803613</v>
+        <v>0.9906583068184367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028530164685231</v>
+        <v>1.039029839153068</v>
       </c>
       <c r="J9">
-        <v>1.026425586997832</v>
+        <v>1.006414610417669</v>
       </c>
       <c r="K9">
-        <v>1.029038205797236</v>
+        <v>1.016137270012741</v>
       </c>
       <c r="L9">
-        <v>1.047799376176409</v>
+        <v>1.002596312757637</v>
       </c>
       <c r="M9">
-        <v>1.05155800706111</v>
+        <v>1.003904786859692</v>
       </c>
       <c r="N9">
-        <v>1.027883229064029</v>
+        <v>1.007843834601832</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018972656081374</v>
+        <v>0.9716289556595513</v>
       </c>
       <c r="D10">
-        <v>1.024681333723657</v>
+        <v>0.9967275667985819</v>
       </c>
       <c r="E10">
-        <v>1.04266056855094</v>
+        <v>0.9793954585583649</v>
       </c>
       <c r="F10">
-        <v>1.046300397346572</v>
+        <v>0.9800263815993114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028238754602909</v>
+        <v>1.036497607430149</v>
       </c>
       <c r="J10">
-        <v>1.025424265143034</v>
+        <v>1.001015251090285</v>
       </c>
       <c r="K10">
-        <v>1.028167866056484</v>
+        <v>1.011156158481732</v>
       </c>
       <c r="L10">
-        <v>1.046082537279574</v>
+        <v>0.9941469739013622</v>
       </c>
       <c r="M10">
-        <v>1.049709593033122</v>
+        <v>0.9947658798602843</v>
       </c>
       <c r="N10">
-        <v>1.026880485217345</v>
+        <v>1.002436807564888</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018298440015977</v>
+        <v>0.9678119608012961</v>
       </c>
       <c r="D11">
-        <v>1.024177299146948</v>
+        <v>0.9938737248474258</v>
       </c>
       <c r="E11">
-        <v>1.04179315089983</v>
+        <v>0.9749476568026419</v>
       </c>
       <c r="F11">
-        <v>1.045376194484082</v>
+        <v>0.9752631178733561</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028109757505499</v>
+        <v>1.035342338156485</v>
       </c>
       <c r="J11">
-        <v>1.02498914248409</v>
+        <v>0.9985879355246344</v>
       </c>
       <c r="K11">
-        <v>1.027788791985119</v>
+        <v>1.008912105962321</v>
       </c>
       <c r="L11">
-        <v>1.04533891030887</v>
+        <v>0.9903580101729825</v>
       </c>
       <c r="M11">
-        <v>1.048908883443484</v>
+        <v>0.9906671154195517</v>
       </c>
       <c r="N11">
-        <v>1.026444744634316</v>
+        <v>1.000006044932717</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018047872851104</v>
+        <v>0.9663730860345882</v>
       </c>
       <c r="D12">
-        <v>1.023989867929502</v>
+        <v>0.9927982341915647</v>
       </c>
       <c r="E12">
-        <v>1.041471015066514</v>
+        <v>0.9732717371259686</v>
       </c>
       <c r="F12">
-        <v>1.045032945804039</v>
+        <v>0.9734680084431777</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028061419582641</v>
+        <v>1.034903975222777</v>
       </c>
       <c r="J12">
-        <v>1.024827286283051</v>
+        <v>0.9976720744340275</v>
       </c>
       <c r="K12">
-        <v>1.027647654806617</v>
+        <v>1.008064721645339</v>
       </c>
       <c r="L12">
-        <v>1.045062657742417</v>
+        <v>0.9889295709310665</v>
       </c>
       <c r="M12">
-        <v>1.048611411299885</v>
+        <v>0.9891218055353229</v>
       </c>
       <c r="N12">
-        <v>1.026282658578906</v>
+        <v>0.9990888832143104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018101626405552</v>
+        <v>0.9666827058143113</v>
       </c>
       <c r="D13">
-        <v>1.024030082076816</v>
+        <v>0.9930296443423958</v>
       </c>
       <c r="E13">
-        <v>1.041540111553111</v>
+        <v>0.9736323342628743</v>
       </c>
       <c r="F13">
-        <v>1.045106571989088</v>
+        <v>0.9738542656446809</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028071807354137</v>
+        <v>1.034998430904682</v>
       </c>
       <c r="J13">
-        <v>1.024862015504163</v>
+        <v>0.9978691885483494</v>
       </c>
       <c r="K13">
-        <v>1.027677944242664</v>
+        <v>1.008247127566167</v>
       </c>
       <c r="L13">
-        <v>1.045121916546057</v>
+        <v>0.989236953657792</v>
       </c>
       <c r="M13">
-        <v>1.048675222524911</v>
+        <v>0.9894543406430296</v>
       </c>
       <c r="N13">
-        <v>1.026317437119495</v>
+        <v>0.9992862772532838</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018277730780604</v>
+        <v>0.9676934609575657</v>
       </c>
       <c r="D14">
-        <v>1.02416181031366</v>
+        <v>0.9937851448454679</v>
       </c>
       <c r="E14">
-        <v>1.041766521810286</v>
+        <v>0.9748096209253226</v>
       </c>
       <c r="F14">
-        <v>1.045347820615033</v>
+        <v>0.9751152716452582</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028105770498651</v>
+        <v>1.035306294034279</v>
       </c>
       <c r="J14">
-        <v>1.02497576814037</v>
+        <v>0.9985125258448905</v>
       </c>
       <c r="K14">
-        <v>1.027777132318438</v>
+        <v>1.008842347844584</v>
       </c>
       <c r="L14">
-        <v>1.045316075943654</v>
+        <v>0.9902403733336788</v>
       </c>
       <c r="M14">
-        <v>1.048884295399429</v>
+        <v>0.9905398553589549</v>
       </c>
       <c r="N14">
-        <v>1.026431351297493</v>
+        <v>0.9999305281625778</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018386216807039</v>
+        <v>0.9683133864095188</v>
       </c>
       <c r="D15">
-        <v>1.02424294456257</v>
+        <v>0.9942485595863626</v>
       </c>
       <c r="E15">
-        <v>1.041906028727211</v>
+        <v>0.9755317772851395</v>
       </c>
       <c r="F15">
-        <v>1.045496467246449</v>
+        <v>0.9758887391467613</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028126640312662</v>
+        <v>1.035494740755939</v>
       </c>
       <c r="J15">
-        <v>1.025045824104877</v>
+        <v>0.9989069932843987</v>
       </c>
       <c r="K15">
-        <v>1.027838201347438</v>
+        <v>1.009207224970271</v>
       </c>
       <c r="L15">
-        <v>1.045435699052805</v>
+        <v>0.9908557777565379</v>
       </c>
       <c r="M15">
-        <v>1.049013104998729</v>
+        <v>0.9912055996056128</v>
       </c>
       <c r="N15">
-        <v>1.026501506749505</v>
+        <v>1.000325555791096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019017382938848</v>
+        <v>0.9718793974594531</v>
       </c>
       <c r="D16">
-        <v>1.024714755331326</v>
+        <v>0.9969148499778581</v>
       </c>
       <c r="E16">
-        <v>1.042718145024396</v>
+        <v>0.9796874033929037</v>
       </c>
       <c r="F16">
-        <v>1.046361739632057</v>
+        <v>0.9803389881453517</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028247256432709</v>
+        <v>1.036573005836156</v>
       </c>
       <c r="J16">
-        <v>1.025453110247595</v>
+        <v>1.001174392815366</v>
       </c>
       <c r="K16">
-        <v>1.028192977368462</v>
+        <v>1.01130318980821</v>
       </c>
       <c r="L16">
-        <v>1.046131884395621</v>
+        <v>0.9943955667708545</v>
       </c>
       <c r="M16">
-        <v>1.049762726217283</v>
+        <v>0.9950347875962703</v>
       </c>
       <c r="N16">
-        <v>1.026909371285262</v>
+        <v>1.002596175289472</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019413060234624</v>
+        <v>0.9740801755637599</v>
       </c>
       <c r="D17">
-        <v>1.025010334727035</v>
+        <v>0.9985607728200735</v>
       </c>
       <c r="E17">
-        <v>1.043227677365593</v>
+        <v>0.9822535830138188</v>
       </c>
       <c r="F17">
-        <v>1.046904579421737</v>
+        <v>0.9830865415870114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028322162336946</v>
+        <v>1.037233352922734</v>
       </c>
       <c r="J17">
-        <v>1.025708176553344</v>
+        <v>1.002572191207929</v>
       </c>
       <c r="K17">
-        <v>1.028414927007574</v>
+        <v>1.01259408404828</v>
       </c>
       <c r="L17">
-        <v>1.046568521097218</v>
+        <v>0.9965800944555067</v>
       </c>
       <c r="M17">
-        <v>1.050232852410662</v>
+        <v>0.9973977695840864</v>
       </c>
       <c r="N17">
-        <v>1.027164799814422</v>
+        <v>1.003995958716082</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019643767155401</v>
+        <v>0.9753512673236636</v>
       </c>
       <c r="D18">
-        <v>1.025182605962949</v>
+        <v>0.9995115103042769</v>
       </c>
       <c r="E18">
-        <v>1.043524920750869</v>
+        <v>0.9837363246122663</v>
       </c>
       <c r="F18">
-        <v>1.047221237576776</v>
+        <v>0.9846738808371485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028365582101543</v>
+        <v>1.037612878896966</v>
       </c>
       <c r="J18">
-        <v>1.025856803494892</v>
+        <v>1.003378941109945</v>
       </c>
       <c r="K18">
-        <v>1.028544173125907</v>
+        <v>1.013338681047279</v>
       </c>
       <c r="L18">
-        <v>1.046823182427325</v>
+        <v>0.9978418224869535</v>
       </c>
       <c r="M18">
-        <v>1.050507037013043</v>
+        <v>0.998762513206505</v>
       </c>
       <c r="N18">
-        <v>1.027313637823275</v>
+        <v>1.004803854295494</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019722417871948</v>
+        <v>0.9757825805106728</v>
       </c>
       <c r="D19">
-        <v>1.025241323059447</v>
+        <v>0.9998341345864696</v>
       </c>
       <c r="E19">
-        <v>1.043626280244958</v>
+        <v>0.984239564328346</v>
       </c>
       <c r="F19">
-        <v>1.047329214822856</v>
+        <v>0.9852125869706291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028380341047729</v>
+        <v>1.037741342124161</v>
       </c>
       <c r="J19">
-        <v>1.025907456192239</v>
+        <v>1.003652593456265</v>
       </c>
       <c r="K19">
-        <v>1.028588206523298</v>
+        <v>1.013591172891799</v>
       </c>
       <c r="L19">
-        <v>1.04691001179965</v>
+        <v>0.9982699662573301</v>
       </c>
       <c r="M19">
-        <v>1.050600521523855</v>
+        <v>0.9992256037353028</v>
       </c>
       <c r="N19">
-        <v>1.027364362453262</v>
+        <v>1.005077895259535</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019370616598776</v>
+        <v>0.9738453638213261</v>
       </c>
       <c r="D20">
-        <v>1.024978635840457</v>
+        <v>0.9983851489841835</v>
       </c>
       <c r="E20">
-        <v>1.043173005066546</v>
+        <v>0.9819797231281352</v>
       </c>
       <c r="F20">
-        <v>1.046846334884424</v>
+        <v>0.9827933465221347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028314153731731</v>
+        <v>1.037163090496002</v>
       </c>
       <c r="J20">
-        <v>1.025680825758409</v>
+        <v>1.002423112012348</v>
       </c>
       <c r="K20">
-        <v>1.028391135979374</v>
+        <v>1.012456453157788</v>
       </c>
       <c r="L20">
-        <v>1.046521676351303</v>
+        <v>0.9963470152863405</v>
       </c>
       <c r="M20">
-        <v>1.050182415654186</v>
+        <v>0.9971456558008267</v>
       </c>
       <c r="N20">
-        <v>1.027137410178221</v>
+        <v>1.003846667810943</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018225876118614</v>
+        <v>0.9673964117544971</v>
       </c>
       <c r="D21">
-        <v>1.024123025435821</v>
+        <v>0.9935631025275339</v>
       </c>
       <c r="E21">
-        <v>1.04169984795388</v>
+        <v>0.9744636111479472</v>
       </c>
       <c r="F21">
-        <v>1.045276777790465</v>
+        <v>0.9747446653553773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028095780864918</v>
+        <v>1.035215894698642</v>
       </c>
       <c r="J21">
-        <v>1.024942277238934</v>
+        <v>0.9983234793520553</v>
       </c>
       <c r="K21">
-        <v>1.027747933072315</v>
+        <v>1.008667458756236</v>
       </c>
       <c r="L21">
-        <v>1.045258901866774</v>
+        <v>0.9899454848177766</v>
       </c>
       <c r="M21">
-        <v>1.048822730132736</v>
+        <v>0.9902208424572868</v>
       </c>
       <c r="N21">
-        <v>1.026397812835136</v>
+        <v>0.9997412132020388</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017505360651482</v>
+        <v>0.9632190282508017</v>
       </c>
       <c r="D22">
-        <v>1.023583852378534</v>
+        <v>0.990441433398778</v>
       </c>
       <c r="E22">
-        <v>1.0407739710918</v>
+        <v>0.9695992125421924</v>
       </c>
       <c r="F22">
-        <v>1.044290172945404</v>
+        <v>0.9695336934019256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027956035904602</v>
+        <v>1.033937897866625</v>
       </c>
       <c r="J22">
-        <v>1.024476578435754</v>
+        <v>0.9956629782100852</v>
       </c>
       <c r="K22">
-        <v>1.027341603923712</v>
+        <v>1.006204655703673</v>
       </c>
       <c r="L22">
-        <v>1.044464733496713</v>
+        <v>0.9857979679242663</v>
       </c>
       <c r="M22">
-        <v>1.047967534154477</v>
+        <v>0.9857338570786476</v>
       </c>
       <c r="N22">
-        <v>1.025931452686238</v>
+        <v>0.9970769338432831</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017887392992781</v>
+        <v>0.9654456423416503</v>
       </c>
       <c r="D23">
-        <v>1.023869793496034</v>
+        <v>0.9921051166999948</v>
       </c>
       <c r="E23">
-        <v>1.041264763259974</v>
+        <v>0.9721916878576234</v>
       </c>
       <c r="F23">
-        <v>1.044813169364519</v>
+        <v>0.9723110549295472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028030349070218</v>
+        <v>1.034620627281124</v>
       </c>
       <c r="J23">
-        <v>1.024723581702549</v>
+        <v>0.997081513296657</v>
       </c>
       <c r="K23">
-        <v>1.027557188870151</v>
+        <v>1.007518131980429</v>
       </c>
       <c r="L23">
-        <v>1.044885758163928</v>
+        <v>0.9880087965959231</v>
       </c>
       <c r="M23">
-        <v>1.048420919814453</v>
+        <v>0.988125676236047</v>
       </c>
       <c r="N23">
-        <v>1.026178806726004</v>
+        <v>0.9984974834123861</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019389795312966</v>
+        <v>0.973951503933449</v>
       </c>
       <c r="D24">
-        <v>1.024992959620506</v>
+        <v>0.998464534516627</v>
       </c>
       <c r="E24">
-        <v>1.043197708995257</v>
+        <v>0.9821035119689339</v>
       </c>
       <c r="F24">
-        <v>1.046872652993646</v>
+        <v>0.9829258757797185</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028317773314766</v>
+        <v>1.037194856471339</v>
       </c>
       <c r="J24">
-        <v>1.025693184865242</v>
+        <v>1.002490500883008</v>
       </c>
       <c r="K24">
-        <v>1.028401886779988</v>
+        <v>1.012518668412382</v>
       </c>
       <c r="L24">
-        <v>1.046542843541232</v>
+        <v>0.9964523721577692</v>
       </c>
       <c r="M24">
-        <v>1.05020520595173</v>
+        <v>0.9972596169050613</v>
       </c>
       <c r="N24">
-        <v>1.027149786836403</v>
+        <v>1.003914152381529</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021129920137617</v>
+        <v>0.9833321461740417</v>
       </c>
       <c r="D25">
-        <v>1.026291025768108</v>
+        <v>1.005481866034855</v>
       </c>
       <c r="E25">
-        <v>1.045442435016374</v>
+        <v>0.9930585333560714</v>
       </c>
       <c r="F25">
-        <v>1.049263713723861</v>
+        <v>0.9946502008406167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028640658615852</v>
+        <v>1.039961890994591</v>
       </c>
       <c r="J25">
-        <v>1.026812514586521</v>
+        <v>1.008433771572853</v>
       </c>
       <c r="K25">
-        <v>1.029373742017303</v>
+        <v>1.017995674982994</v>
       </c>
       <c r="L25">
-        <v>1.048464966049637</v>
+        <v>1.005765570958971</v>
       </c>
       <c r="M25">
-        <v>1.052274522972573</v>
+        <v>1.00733213715186</v>
       </c>
       <c r="N25">
-        <v>1.028270706134276</v>
+        <v>1.009865863197456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9904619547975961</v>
+        <v>0.9961024269667783</v>
       </c>
       <c r="D2">
-        <v>1.010814701777381</v>
+        <v>1.016949037661251</v>
       </c>
       <c r="E2">
-        <v>1.00140993582777</v>
+        <v>1.01680115570446</v>
       </c>
       <c r="F2">
-        <v>1.003582105100866</v>
+        <v>1.023993704281962</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042004576084691</v>
+        <v>1.041684883715653</v>
       </c>
       <c r="J2">
-        <v>1.012931738467414</v>
+        <v>1.018400342016185</v>
       </c>
       <c r="K2">
-        <v>1.022125398973845</v>
+        <v>1.028177189427402</v>
       </c>
       <c r="L2">
-        <v>1.012849662892034</v>
+        <v>1.028031282698857</v>
       </c>
       <c r="M2">
-        <v>1.014991760077553</v>
+        <v>1.035128590421041</v>
       </c>
       <c r="N2">
-        <v>1.014370217720932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009791339412803</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036374301469998</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030993856438485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9954533408610993</v>
+        <v>1.000574538372493</v>
       </c>
       <c r="D3">
-        <v>1.01454591862464</v>
+        <v>1.019820117319979</v>
       </c>
       <c r="E3">
-        <v>1.007273568450803</v>
+        <v>1.020621871171317</v>
       </c>
       <c r="F3">
-        <v>1.00984993700783</v>
+        <v>1.027572351250226</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043398261560277</v>
+        <v>1.042437767087578</v>
       </c>
       <c r="J3">
-        <v>1.016068724487189</v>
+        <v>1.021049553136892</v>
       </c>
       <c r="K3">
-        <v>1.024996004146676</v>
+        <v>1.030205524609656</v>
       </c>
       <c r="L3">
-        <v>1.017814220912175</v>
+        <v>1.030997519177689</v>
       </c>
       <c r="M3">
-        <v>1.02035831846344</v>
+        <v>1.037864186838104</v>
       </c>
       <c r="N3">
-        <v>1.017511658620673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010709568777215</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038539351811479</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032425405357021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9986028398158914</v>
+        <v>1.003407713602009</v>
       </c>
       <c r="D4">
-        <v>1.016898733169328</v>
+        <v>1.021642078110229</v>
       </c>
       <c r="E4">
-        <v>1.010982112448364</v>
+        <v>1.023052725852944</v>
       </c>
       <c r="F4">
-        <v>1.013812578832615</v>
+        <v>1.029850427510873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044260379552799</v>
+        <v>1.042903875450878</v>
       </c>
       <c r="J4">
-        <v>1.018042352742903</v>
+        <v>1.022724649586369</v>
       </c>
       <c r="K4">
-        <v>1.026797395422737</v>
+        <v>1.031486134900721</v>
       </c>
       <c r="L4">
-        <v>1.020949775640703</v>
+        <v>1.03288066376487</v>
       </c>
       <c r="M4">
-        <v>1.023747108226507</v>
+        <v>1.039601453453413</v>
       </c>
       <c r="N4">
-        <v>1.019488089654887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011289895666483</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039914284291947</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033331829470834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9999084415950075</v>
+        <v>1.004589206420544</v>
       </c>
       <c r="D5">
-        <v>1.017873630522757</v>
+        <v>1.022404907319103</v>
       </c>
       <c r="E5">
-        <v>1.012521653427378</v>
+        <v>1.02406703731886</v>
       </c>
       <c r="F5">
-        <v>1.015457236263456</v>
+        <v>1.030801217178262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044613547921486</v>
+        <v>1.043097317526307</v>
       </c>
       <c r="J5">
-        <v>1.018859084068271</v>
+        <v>1.023424086410411</v>
       </c>
       <c r="K5">
-        <v>1.027541703438386</v>
+        <v>1.03202222547681</v>
       </c>
       <c r="L5">
-        <v>1.022250395471872</v>
+        <v>1.033665876473101</v>
       </c>
       <c r="M5">
-        <v>1.025152603412573</v>
+        <v>1.040325936782802</v>
       </c>
       <c r="N5">
-        <v>1.020305980832418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011532744119626</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040487664509997</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033718129764601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000126597526237</v>
+        <v>1.004792164196771</v>
       </c>
       <c r="D6">
-        <v>1.018036499976596</v>
+        <v>1.022538844936785</v>
       </c>
       <c r="E6">
-        <v>1.01277903076923</v>
+        <v>1.024239187318343</v>
       </c>
       <c r="F6">
-        <v>1.015732165187228</v>
+        <v>1.030962520019013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044672309649907</v>
+        <v>1.04313248644244</v>
       </c>
       <c r="J6">
-        <v>1.018995468844172</v>
+        <v>1.023546255279057</v>
       </c>
       <c r="K6">
-        <v>1.027665925868138</v>
+        <v>1.032118074400445</v>
       </c>
       <c r="L6">
-        <v>1.022467768239415</v>
+        <v>1.033799600873323</v>
       </c>
       <c r="M6">
-        <v>1.025387494070104</v>
+        <v>1.040449279530456</v>
       </c>
       <c r="N6">
-        <v>1.020442559290344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011575891459272</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040585282019935</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033794722584326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9986203568365567</v>
+        <v>1.003438058551825</v>
       </c>
       <c r="D7">
-        <v>1.016911815047013</v>
+        <v>1.021669336046486</v>
       </c>
       <c r="E7">
-        <v>1.011002759380928</v>
+        <v>1.023072822532235</v>
       </c>
       <c r="F7">
-        <v>1.013834636943635</v>
+        <v>1.029869007104949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044265134713513</v>
+        <v>1.042914495574927</v>
       </c>
       <c r="J7">
-        <v>1.018053316349748</v>
+        <v>1.022748166794132</v>
       </c>
       <c r="K7">
-        <v>1.026807391422642</v>
+        <v>1.031510164751846</v>
       </c>
       <c r="L7">
-        <v>1.020967222555791</v>
+        <v>1.032897620462314</v>
       </c>
       <c r="M7">
-        <v>1.023765962636266</v>
+        <v>1.039616939464575</v>
       </c>
       <c r="N7">
-        <v>1.019499068831312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011300066770841</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03992654044134</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033369107414508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9921659131696546</v>
+        <v>0.9976448510349167</v>
       </c>
       <c r="D8">
-        <v>1.012088738762788</v>
+        <v>1.017948146834337</v>
       </c>
       <c r="E8">
-        <v>1.003409907844662</v>
+        <v>1.018109570549244</v>
       </c>
       <c r="F8">
-        <v>1.005720267576178</v>
+        <v>1.025218500004739</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042483943544439</v>
+        <v>1.041953790723861</v>
       </c>
       <c r="J8">
-        <v>1.014003832264105</v>
+        <v>1.01932159243442</v>
       </c>
       <c r="K8">
-        <v>1.023107412861162</v>
+        <v>1.028890365829143</v>
       </c>
       <c r="L8">
-        <v>1.014543887030979</v>
+        <v>1.0290496988341</v>
       </c>
       <c r="M8">
-        <v>1.016823307732736</v>
+        <v>1.036067371271905</v>
       </c>
       <c r="N8">
-        <v>1.015443834013785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01011335995262</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037117287466494</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031521275511178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9801405311103677</v>
+        <v>0.9869251057806085</v>
       </c>
       <c r="D9">
-        <v>1.003094195281515</v>
+        <v>1.011077593176655</v>
       </c>
       <c r="E9">
-        <v>0.9893276783994692</v>
+        <v>1.009020224766548</v>
       </c>
       <c r="F9">
-        <v>0.9906583068184367</v>
+        <v>1.016712410420477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039029839153068</v>
+        <v>1.040082586715265</v>
       </c>
       <c r="J9">
-        <v>1.006414610417669</v>
+        <v>1.01294817367106</v>
       </c>
       <c r="K9">
-        <v>1.016137270012741</v>
+        <v>1.023993464961557</v>
       </c>
       <c r="L9">
-        <v>1.002596312757637</v>
+        <v>1.021968630904452</v>
       </c>
       <c r="M9">
-        <v>1.003904786859692</v>
+        <v>1.029540037191155</v>
       </c>
       <c r="N9">
-        <v>1.007843834601832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007900705923638</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03195129693117</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028055550815168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9716289556595513</v>
+        <v>0.9795148951853484</v>
       </c>
       <c r="D10">
-        <v>0.9967275667985819</v>
+        <v>1.006361377581728</v>
       </c>
       <c r="E10">
-        <v>0.9793954585583649</v>
+        <v>1.002961548464049</v>
       </c>
       <c r="F10">
-        <v>0.9800263815993114</v>
+        <v>1.011066993088583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036497607430149</v>
+        <v>1.03875071523737</v>
       </c>
       <c r="J10">
-        <v>1.001015251090285</v>
+        <v>1.008565523543663</v>
       </c>
       <c r="K10">
-        <v>1.011156158481732</v>
+        <v>1.020616717498591</v>
       </c>
       <c r="L10">
-        <v>0.9941469739013622</v>
+        <v>1.017277536328088</v>
       </c>
       <c r="M10">
-        <v>0.9947658798602843</v>
+        <v>1.025239263755844</v>
       </c>
       <c r="N10">
-        <v>1.002436807564888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006385158933722</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.028599536243729</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025684937344831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9678119608012961</v>
+        <v>0.9770216028628461</v>
       </c>
       <c r="D11">
-        <v>0.9938737248474258</v>
+        <v>1.004856088833083</v>
       </c>
       <c r="E11">
-        <v>0.9749476568026419</v>
+        <v>1.002280745582562</v>
       </c>
       <c r="F11">
-        <v>0.9752631178733561</v>
+        <v>1.010570531057461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035342338156485</v>
+        <v>1.038407377229942</v>
       </c>
       <c r="J11">
-        <v>0.9985879355246344</v>
+        <v>1.007382570002606</v>
       </c>
       <c r="K11">
-        <v>1.008912105962321</v>
+        <v>1.019687003827944</v>
       </c>
       <c r="L11">
-        <v>0.9903580101729825</v>
+        <v>1.017159778175613</v>
       </c>
       <c r="M11">
-        <v>0.9906671154195517</v>
+        <v>1.02529581838964</v>
       </c>
       <c r="N11">
-        <v>1.000006044932717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006031382898279</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029085282899169</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025060855317707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9663730860345882</v>
+        <v>0.9763932069403511</v>
       </c>
       <c r="D12">
-        <v>0.9927982341915647</v>
+        <v>1.004512095990541</v>
       </c>
       <c r="E12">
-        <v>0.9732717371259686</v>
+        <v>1.002790767529989</v>
       </c>
       <c r="F12">
-        <v>0.9734680084431777</v>
+        <v>1.011135291492918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034903975222777</v>
+        <v>1.038374615393037</v>
       </c>
       <c r="J12">
-        <v>0.9976720744340275</v>
+        <v>1.007231375695349</v>
       </c>
       <c r="K12">
-        <v>1.008064721645339</v>
+        <v>1.019553358918067</v>
       </c>
       <c r="L12">
-        <v>0.9889295709310665</v>
+        <v>1.017864695440159</v>
       </c>
       <c r="M12">
-        <v>0.9891218055353229</v>
+        <v>1.026052221750463</v>
       </c>
       <c r="N12">
-        <v>0.9990888832143104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006022981635893</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030012974380155</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024966361641351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9666827058143113</v>
+        <v>0.9771740480496446</v>
       </c>
       <c r="D13">
-        <v>0.9930296443423958</v>
+        <v>1.005056403652254</v>
       </c>
       <c r="E13">
-        <v>0.9736323342628743</v>
+        <v>1.004257594888365</v>
       </c>
       <c r="F13">
-        <v>0.9738542656446809</v>
+        <v>1.012570406454609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034998430904682</v>
+        <v>1.038591672883485</v>
       </c>
       <c r="J13">
-        <v>0.9978691885483494</v>
+        <v>1.007880590022817</v>
       </c>
       <c r="K13">
-        <v>1.008247127566167</v>
+        <v>1.020043657209821</v>
       </c>
       <c r="L13">
-        <v>0.989236953657792</v>
+        <v>1.019259916729223</v>
       </c>
       <c r="M13">
-        <v>0.9894543406430296</v>
+        <v>1.027417436858303</v>
       </c>
       <c r="N13">
-        <v>0.9992862772532838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006288216031841</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031371146873058</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025310501510736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9676934609575657</v>
+        <v>0.9783556413635961</v>
       </c>
       <c r="D14">
-        <v>0.9937851448454679</v>
+        <v>1.005839277060099</v>
       </c>
       <c r="E14">
-        <v>0.9748096209253226</v>
+        <v>1.005702548398033</v>
       </c>
       <c r="F14">
-        <v>0.9751152716452582</v>
+        <v>1.013956801024464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035306294034279</v>
+        <v>1.038856438978269</v>
       </c>
       <c r="J14">
-        <v>0.9985125258448905</v>
+        <v>1.008694405838479</v>
       </c>
       <c r="K14">
-        <v>1.008842347844584</v>
+        <v>1.020668732489914</v>
       </c>
       <c r="L14">
-        <v>0.9902403733336788</v>
+        <v>1.020534547209198</v>
       </c>
       <c r="M14">
-        <v>0.9905398553589549</v>
+        <v>1.028636856610244</v>
       </c>
       <c r="N14">
-        <v>0.9999305281625778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006597093905079</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032509411643751</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025753904585516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9683133864095188</v>
+        <v>0.9789561843603531</v>
       </c>
       <c r="D15">
-        <v>0.9942485595863626</v>
+        <v>1.006229873333319</v>
       </c>
       <c r="E15">
-        <v>0.9755317772851395</v>
+        <v>1.006284507884677</v>
       </c>
       <c r="F15">
-        <v>0.9758887391467613</v>
+        <v>1.014509425808576</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035494740755939</v>
+        <v>1.038978450881831</v>
       </c>
       <c r="J15">
-        <v>0.9989069932843987</v>
+        <v>1.009074826289256</v>
       </c>
       <c r="K15">
-        <v>1.009207224970271</v>
+        <v>1.020963971884753</v>
       </c>
       <c r="L15">
-        <v>0.9908557777565379</v>
+        <v>1.02101759837838</v>
       </c>
       <c r="M15">
-        <v>0.9912055996056128</v>
+        <v>1.029092369209923</v>
       </c>
       <c r="N15">
-        <v>1.000325555791096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006735238529363</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032907172871447</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025968599592793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9718793974594531</v>
+        <v>0.98193525305755</v>
       </c>
       <c r="D16">
-        <v>0.9969148499778581</v>
+        <v>1.008115185172154</v>
       </c>
       <c r="E16">
-        <v>0.9796874033929037</v>
+        <v>1.008558879111224</v>
       </c>
       <c r="F16">
-        <v>0.9803389881453517</v>
+        <v>1.016643736494223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036573005836156</v>
+        <v>1.039511921947506</v>
       </c>
       <c r="J16">
-        <v>1.001174392815366</v>
+        <v>1.010805249573467</v>
       </c>
       <c r="K16">
-        <v>1.01130318980821</v>
+        <v>1.022303195260551</v>
       </c>
       <c r="L16">
-        <v>0.9943955667708545</v>
+        <v>1.02273907204176</v>
       </c>
       <c r="M16">
-        <v>0.9950347875962703</v>
+        <v>1.030683032921932</v>
       </c>
       <c r="N16">
-        <v>1.002596175289472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007326123723765</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034125517671307</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026918703442405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9740801755637599</v>
+        <v>0.9836053058794617</v>
       </c>
       <c r="D17">
-        <v>0.9985607728200735</v>
+        <v>1.009155020974462</v>
       </c>
       <c r="E17">
-        <v>0.9822535830138188</v>
+        <v>1.009551375622094</v>
       </c>
       <c r="F17">
-        <v>0.9830865415870114</v>
+        <v>1.017553741984935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037233352922734</v>
+        <v>1.039780943108384</v>
       </c>
       <c r="J17">
-        <v>1.002572191207929</v>
+        <v>1.011708420731234</v>
       </c>
       <c r="K17">
-        <v>1.01259408404828</v>
+        <v>1.023004411311508</v>
       </c>
       <c r="L17">
-        <v>0.9965800944555067</v>
+        <v>1.023393981853797</v>
       </c>
       <c r="M17">
-        <v>0.9973977695840864</v>
+        <v>1.031260835052934</v>
       </c>
       <c r="N17">
-        <v>1.003995958716082</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007618219444373</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034452536371151</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027417117748803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9753512673236636</v>
+        <v>0.9842900516496583</v>
       </c>
       <c r="D18">
-        <v>0.9995115103042769</v>
+        <v>1.009546549459659</v>
       </c>
       <c r="E18">
-        <v>0.9837363246122663</v>
+        <v>1.009450195351981</v>
       </c>
       <c r="F18">
-        <v>0.9846738808371485</v>
+        <v>1.017403961922308</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037612878896966</v>
+        <v>1.039840819825937</v>
       </c>
       <c r="J18">
-        <v>1.003378941109945</v>
+        <v>1.011959987577488</v>
       </c>
       <c r="K18">
-        <v>1.013338681047279</v>
+        <v>1.023202506849499</v>
       </c>
       <c r="L18">
-        <v>0.9978418224869535</v>
+        <v>1.023107775816128</v>
       </c>
       <c r="M18">
-        <v>0.998762513206505</v>
+        <v>1.030928893596517</v>
       </c>
       <c r="N18">
-        <v>1.004803854295494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007670197875074</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033951020093099</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027545405530057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9757825805106728</v>
+        <v>0.9841116631661354</v>
       </c>
       <c r="D19">
-        <v>0.9998341345864696</v>
+        <v>1.009384606227876</v>
       </c>
       <c r="E19">
-        <v>0.984239564328346</v>
+        <v>1.008360835663367</v>
       </c>
       <c r="F19">
-        <v>0.9852125869706291</v>
+        <v>1.016290045300562</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037741342124161</v>
+        <v>1.039729658700411</v>
       </c>
       <c r="J19">
-        <v>1.003652593456265</v>
+        <v>1.011650422444078</v>
       </c>
       <c r="K19">
-        <v>1.013591172891799</v>
+        <v>1.022979606509646</v>
       </c>
       <c r="L19">
-        <v>0.9982699662573301</v>
+        <v>1.021973016354719</v>
       </c>
       <c r="M19">
-        <v>0.9992256037353028</v>
+        <v>1.029770325068269</v>
       </c>
       <c r="N19">
-        <v>1.005077895259535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007521903529227</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032707006022733</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027394276400152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9738453638213261</v>
+        <v>0.9814803209333319</v>
       </c>
       <c r="D20">
-        <v>0.9983851489841835</v>
+        <v>1.007630241064941</v>
       </c>
       <c r="E20">
-        <v>0.9819797231281352</v>
+        <v>1.004558514048837</v>
       </c>
       <c r="F20">
-        <v>0.9827933465221347</v>
+        <v>1.012554219374182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037163090496002</v>
+        <v>1.03912241254408</v>
       </c>
       <c r="J20">
-        <v>1.002423112012348</v>
+        <v>1.009744296294497</v>
       </c>
       <c r="K20">
-        <v>1.012456453157788</v>
+        <v>1.021540235785024</v>
       </c>
       <c r="L20">
-        <v>0.9963470152863405</v>
+        <v>1.018521678297442</v>
       </c>
       <c r="M20">
-        <v>0.9971456558008267</v>
+        <v>1.026379852468849</v>
       </c>
       <c r="N20">
-        <v>1.003846667810943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006799295955501</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029491527198775</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026380537822119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9673964117544971</v>
+        <v>0.9757398474792565</v>
       </c>
       <c r="D21">
-        <v>0.9935631025275339</v>
+        <v>1.003969149492332</v>
       </c>
       <c r="E21">
-        <v>0.9744636111479472</v>
+        <v>0.9996350768839281</v>
       </c>
       <c r="F21">
-        <v>0.9747446653553773</v>
+        <v>1.007939630657971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035215894698642</v>
+        <v>1.03804926243981</v>
       </c>
       <c r="J21">
-        <v>0.9983234793520553</v>
+        <v>1.006288098398401</v>
       </c>
       <c r="K21">
-        <v>1.008667458756236</v>
+        <v>1.018875713285297</v>
       </c>
       <c r="L21">
-        <v>0.9899454848177766</v>
+        <v>1.014623366145425</v>
       </c>
       <c r="M21">
-        <v>0.9902208424572868</v>
+        <v>1.02277212951819</v>
       </c>
       <c r="N21">
-        <v>0.9997412132020388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005593378276834</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026594866581128</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024499855607687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9632190282508017</v>
+        <v>0.9720741248043829</v>
       </c>
       <c r="D22">
-        <v>0.990441433398778</v>
+        <v>1.001633848922308</v>
       </c>
       <c r="E22">
-        <v>0.9695992125421924</v>
+        <v>0.9965931550194462</v>
       </c>
       <c r="F22">
-        <v>0.9695336934019256</v>
+        <v>1.005100015641412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033937897866625</v>
+        <v>1.037354526484919</v>
       </c>
       <c r="J22">
-        <v>0.9956629782100852</v>
+        <v>1.004090899490639</v>
       </c>
       <c r="K22">
-        <v>1.006204655703673</v>
+        <v>1.017173008283069</v>
       </c>
       <c r="L22">
-        <v>0.9857979679242663</v>
+        <v>1.012232405640707</v>
       </c>
       <c r="M22">
-        <v>0.9857338570786476</v>
+        <v>1.020571112766342</v>
       </c>
       <c r="N22">
-        <v>0.9970769338432831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004827018837755</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024852872699711</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023282244806311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9654456423416503</v>
+        <v>0.9740121155567967</v>
       </c>
       <c r="D23">
-        <v>0.9921051166999948</v>
+        <v>1.002860840689778</v>
       </c>
       <c r="E23">
-        <v>0.9721916878576234</v>
+        <v>0.9982044171805443</v>
       </c>
       <c r="F23">
-        <v>0.9723110549295472</v>
+        <v>1.006604690036993</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034620627281124</v>
+        <v>1.037717762502955</v>
       </c>
       <c r="J23">
-        <v>0.997081513296657</v>
+        <v>1.005247724997312</v>
       </c>
       <c r="K23">
-        <v>1.007518131980429</v>
+        <v>1.018064333090956</v>
       </c>
       <c r="L23">
-        <v>0.9880087965959231</v>
+        <v>1.013497890617123</v>
       </c>
       <c r="M23">
-        <v>0.988125676236047</v>
+        <v>1.021736625619938</v>
       </c>
       <c r="N23">
-        <v>0.9984974834123861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005228193852907</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025775317963517</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023902690747058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.973951503933449</v>
+        <v>0.9814775703756435</v>
       </c>
       <c r="D24">
-        <v>0.998464534516627</v>
+        <v>1.007611262294067</v>
       </c>
       <c r="E24">
-        <v>0.9821035119689339</v>
+        <v>1.004434564094727</v>
       </c>
       <c r="F24">
-        <v>0.9829258757797185</v>
+        <v>1.012424553000428</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037194856471339</v>
+        <v>1.039103806910784</v>
       </c>
       <c r="J24">
-        <v>1.002490500883008</v>
+        <v>1.00970775335838</v>
       </c>
       <c r="K24">
-        <v>1.012518668412382</v>
+        <v>1.021506021165448</v>
       </c>
       <c r="L24">
-        <v>0.9964523721577692</v>
+        <v>1.018384248807976</v>
       </c>
       <c r="M24">
-        <v>0.9972596169050613</v>
+        <v>1.026236937030923</v>
       </c>
       <c r="N24">
-        <v>1.003914152381529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006778451461127</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029337078219284</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026328587290809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9833321461740417</v>
+        <v>0.9897812397682425</v>
       </c>
       <c r="D25">
-        <v>1.005481866034855</v>
+        <v>1.012916575672045</v>
       </c>
       <c r="E25">
-        <v>0.9930585333560714</v>
+        <v>1.011422994208456</v>
       </c>
       <c r="F25">
-        <v>0.9946502008406167</v>
+        <v>1.018958985107337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039961890994591</v>
+        <v>1.040599483356624</v>
       </c>
       <c r="J25">
-        <v>1.008433771572853</v>
+        <v>1.014657468697168</v>
       </c>
       <c r="K25">
-        <v>1.017995674982994</v>
+        <v>1.025317633678291</v>
       </c>
       <c r="L25">
-        <v>1.005765570958971</v>
+        <v>1.02384653365343</v>
       </c>
       <c r="M25">
-        <v>1.00733213715186</v>
+        <v>1.031269947379246</v>
       </c>
       <c r="N25">
-        <v>1.009865863197456</v>
+        <v>1.008497912093325</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033320420012791</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029020755616473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961024269667783</v>
+        <v>0.996873885467931</v>
       </c>
       <c r="D2">
-        <v>1.016949037661251</v>
+        <v>1.017369488670464</v>
       </c>
       <c r="E2">
-        <v>1.01680115570446</v>
+        <v>1.017064569648436</v>
       </c>
       <c r="F2">
-        <v>1.023993704281962</v>
+        <v>1.024274056597003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041684883715653</v>
+        <v>1.041879333898641</v>
       </c>
       <c r="J2">
-        <v>1.018400342016185</v>
+        <v>1.019148501817349</v>
       </c>
       <c r="K2">
-        <v>1.028177189427402</v>
+        <v>1.028592028500313</v>
       </c>
       <c r="L2">
-        <v>1.028031282698857</v>
+        <v>1.028291178780053</v>
       </c>
       <c r="M2">
-        <v>1.035128590421041</v>
+        <v>1.03540526436974</v>
       </c>
       <c r="N2">
-        <v>1.009791339412803</v>
+        <v>1.0121037375333</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036374301469998</v>
+        <v>1.036593271579007</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030993856438485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031296050729088</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019692956953551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000574538372493</v>
+        <v>1.00106684782394</v>
       </c>
       <c r="D3">
-        <v>1.019820117319979</v>
+        <v>1.019952524832984</v>
       </c>
       <c r="E3">
-        <v>1.020621871171317</v>
+        <v>1.020800005238401</v>
       </c>
       <c r="F3">
-        <v>1.027572351250226</v>
+        <v>1.027754812998117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042437767087578</v>
+        <v>1.042510182949043</v>
       </c>
       <c r="J3">
-        <v>1.021049553136892</v>
+        <v>1.021528471682635</v>
       </c>
       <c r="K3">
-        <v>1.030205524609656</v>
+        <v>1.030336319088533</v>
       </c>
       <c r="L3">
-        <v>1.030997519177689</v>
+        <v>1.031173487508587</v>
       </c>
       <c r="M3">
-        <v>1.037864186838104</v>
+        <v>1.038044467308477</v>
       </c>
       <c r="N3">
-        <v>1.010709568777215</v>
+        <v>1.012758035718954</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038539351811479</v>
+        <v>1.038682032091599</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032425405357021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03252646954645</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020060687675652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003407713602009</v>
+        <v>1.003725610785835</v>
       </c>
       <c r="D4">
-        <v>1.021642078110229</v>
+        <v>1.021593579578569</v>
       </c>
       <c r="E4">
-        <v>1.023052725852944</v>
+        <v>1.023178131532389</v>
       </c>
       <c r="F4">
-        <v>1.029850427510873</v>
+        <v>1.029971956230073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042903875450878</v>
+        <v>1.042899561872293</v>
       </c>
       <c r="J4">
-        <v>1.022724649586369</v>
+        <v>1.023034492811352</v>
       </c>
       <c r="K4">
-        <v>1.031486134900721</v>
+        <v>1.03143819151821</v>
       </c>
       <c r="L4">
-        <v>1.03288066376487</v>
+        <v>1.033004639140167</v>
       </c>
       <c r="M4">
-        <v>1.039601453453413</v>
+        <v>1.039721618522462</v>
       </c>
       <c r="N4">
-        <v>1.011289895666483</v>
+        <v>1.013171987252616</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039914284291947</v>
+        <v>1.040009386958341</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033331829470834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033306586571492</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020290375411777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004589206420544</v>
+        <v>1.004834799166259</v>
       </c>
       <c r="D5">
-        <v>1.022404907319103</v>
+        <v>1.022281271990509</v>
       </c>
       <c r="E5">
-        <v>1.02406703731886</v>
+        <v>1.02417068186002</v>
       </c>
       <c r="F5">
-        <v>1.030801217178262</v>
+        <v>1.030897516852259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043097317526307</v>
+        <v>1.043061087084436</v>
       </c>
       <c r="J5">
-        <v>1.023424086410411</v>
+        <v>1.023663645354734</v>
       </c>
       <c r="K5">
-        <v>1.03202222547681</v>
+        <v>1.031899967638539</v>
       </c>
       <c r="L5">
-        <v>1.033665876473101</v>
+        <v>1.033768371172254</v>
       </c>
       <c r="M5">
-        <v>1.040325936782802</v>
+        <v>1.040421185159146</v>
       </c>
       <c r="N5">
-        <v>1.011532744119626</v>
+        <v>1.013345346700598</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040487664509997</v>
+        <v>1.040563047211003</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033718129764601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033641047648071</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020386523935342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004792164196771</v>
+        <v>1.005025217706926</v>
       </c>
       <c r="D6">
-        <v>1.022538844936785</v>
+        <v>1.022402249758057</v>
       </c>
       <c r="E6">
-        <v>1.024239187318343</v>
+        <v>1.024339024413877</v>
       </c>
       <c r="F6">
-        <v>1.030962520019013</v>
+        <v>1.031054420089564</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04313248644244</v>
+        <v>1.043090713648823</v>
       </c>
       <c r="J6">
-        <v>1.023546255279057</v>
+        <v>1.023773612903514</v>
       </c>
       <c r="K6">
-        <v>1.032118074400445</v>
+        <v>1.031982994117238</v>
       </c>
       <c r="L6">
-        <v>1.033799600873323</v>
+        <v>1.033898335562775</v>
       </c>
       <c r="M6">
-        <v>1.040449279530456</v>
+        <v>1.040540181002325</v>
       </c>
       <c r="N6">
-        <v>1.011575891459272</v>
+        <v>1.013376194183089</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040585282019935</v>
+        <v>1.040657224428053</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033794722584326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03370944088904</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020404412845045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003438058551825</v>
+        <v>1.0037653754795</v>
       </c>
       <c r="D7">
-        <v>1.021669336046486</v>
+        <v>1.021627096772731</v>
       </c>
       <c r="E7">
-        <v>1.023072822532235</v>
+        <v>1.023202244818263</v>
       </c>
       <c r="F7">
-        <v>1.029869007104949</v>
+        <v>1.029994193351514</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042914495574927</v>
+        <v>1.042913025414341</v>
       </c>
       <c r="J7">
-        <v>1.022748166794132</v>
+        <v>1.023067194928223</v>
       </c>
       <c r="K7">
-        <v>1.031510164751846</v>
+        <v>1.0314684087822</v>
       </c>
       <c r="L7">
-        <v>1.032897620462314</v>
+        <v>1.033025567204871</v>
       </c>
       <c r="M7">
-        <v>1.039616939464575</v>
+        <v>1.039740721557488</v>
       </c>
       <c r="N7">
-        <v>1.011300066770841</v>
+        <v>1.013208973693287</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03992654044134</v>
+        <v>1.040024505739884</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033369107414508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033350234463907</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020299233508809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9976448510349167</v>
+        <v>0.9983550489506545</v>
       </c>
       <c r="D8">
-        <v>1.017948146834337</v>
+        <v>1.018294781490136</v>
       </c>
       <c r="E8">
-        <v>1.018109570549244</v>
+        <v>1.018358329653489</v>
       </c>
       <c r="F8">
-        <v>1.025218500004739</v>
+        <v>1.025478685959557</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041953790723861</v>
+        <v>1.042117796608502</v>
       </c>
       <c r="J8">
-        <v>1.01932159243442</v>
+        <v>1.020011075582815</v>
       </c>
       <c r="K8">
-        <v>1.028890365829143</v>
+        <v>1.02923251200211</v>
       </c>
       <c r="L8">
-        <v>1.0290496988341</v>
+        <v>1.02929523771143</v>
       </c>
       <c r="M8">
-        <v>1.036067371271905</v>
+        <v>1.036324247208542</v>
       </c>
       <c r="N8">
-        <v>1.01011335995262</v>
+        <v>1.012423579167375</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037117287466494</v>
+        <v>1.037320588478293</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031521275511178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03177432595312</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019833263715046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9869251057806085</v>
+        <v>0.988326180423281</v>
       </c>
       <c r="D9">
-        <v>1.011077593176655</v>
+        <v>1.012129163585011</v>
       </c>
       <c r="E9">
-        <v>1.009020224766548</v>
+        <v>1.009485127497014</v>
       </c>
       <c r="F9">
-        <v>1.016712410420477</v>
+        <v>1.017216896889973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040082586715265</v>
+        <v>1.040545003757631</v>
       </c>
       <c r="J9">
-        <v>1.01294817367106</v>
+        <v>1.014298014839662</v>
       </c>
       <c r="K9">
-        <v>1.023993464961557</v>
+        <v>1.025028471645706</v>
       </c>
       <c r="L9">
-        <v>1.021968630904452</v>
+        <v>1.022426167007909</v>
       </c>
       <c r="M9">
-        <v>1.029540037191155</v>
+        <v>1.030036683994626</v>
       </c>
       <c r="N9">
-        <v>1.007900705923638</v>
+        <v>1.010861060347121</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03195129693117</v>
+        <v>1.032344364201791</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028055550815168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02879825307719</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018930836555203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9795148951853484</v>
+        <v>0.9814601026187045</v>
       </c>
       <c r="D10">
-        <v>1.006361377581728</v>
+        <v>1.007946401383754</v>
       </c>
       <c r="E10">
-        <v>1.002961548464049</v>
+        <v>1.003605834406325</v>
       </c>
       <c r="F10">
-        <v>1.011066993088583</v>
+        <v>1.01176704350566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.03875071523737</v>
+        <v>1.039439398980561</v>
       </c>
       <c r="J10">
-        <v>1.008565523543663</v>
+        <v>1.010429112347613</v>
       </c>
       <c r="K10">
-        <v>1.020616717498591</v>
+        <v>1.022173648174372</v>
       </c>
       <c r="L10">
-        <v>1.017277536328088</v>
+        <v>1.017910288176314</v>
       </c>
       <c r="M10">
-        <v>1.025239263755844</v>
+        <v>1.025927041573134</v>
       </c>
       <c r="N10">
-        <v>1.006385158933722</v>
+        <v>1.009922061633083</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.028599536243729</v>
+        <v>1.029143840504075</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025684937344831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026798366877258</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018313476184317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9770216028628461</v>
+        <v>0.9792149954115262</v>
       </c>
       <c r="D11">
-        <v>1.004856088833083</v>
+        <v>1.006661135560904</v>
       </c>
       <c r="E11">
-        <v>1.002280745582562</v>
+        <v>1.002998850788996</v>
       </c>
       <c r="F11">
-        <v>1.010570531057461</v>
+        <v>1.011355528753206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038407377229942</v>
+        <v>1.039187777272137</v>
       </c>
       <c r="J11">
-        <v>1.007382570002606</v>
+        <v>1.00947876849472</v>
       </c>
       <c r="K11">
-        <v>1.019687003827944</v>
+        <v>1.021458516504621</v>
       </c>
       <c r="L11">
-        <v>1.017159778175613</v>
+        <v>1.017864433904718</v>
       </c>
       <c r="M11">
-        <v>1.02529581838964</v>
+        <v>1.026066427350442</v>
       </c>
       <c r="N11">
-        <v>1.006031382898279</v>
+        <v>1.009936453452331</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029085282899169</v>
+        <v>1.029694825770983</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025060855317707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026329201011806</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018199839384055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763932069403511</v>
+        <v>0.9786556085410475</v>
       </c>
       <c r="D12">
-        <v>1.004512095990541</v>
+        <v>1.00637282796269</v>
       </c>
       <c r="E12">
-        <v>1.002790767529989</v>
+        <v>1.003518781734766</v>
       </c>
       <c r="F12">
-        <v>1.011135291492918</v>
+        <v>1.011939799004316</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038374615393037</v>
+        <v>1.039176416111203</v>
       </c>
       <c r="J12">
-        <v>1.007231375695349</v>
+        <v>1.009391600452917</v>
       </c>
       <c r="K12">
-        <v>1.019553358918067</v>
+        <v>1.02137894469727</v>
       </c>
       <c r="L12">
-        <v>1.017864695440159</v>
+        <v>1.018578876521138</v>
       </c>
       <c r="M12">
-        <v>1.026052221750463</v>
+        <v>1.026841771381393</v>
       </c>
       <c r="N12">
-        <v>1.006022981635893</v>
+        <v>1.010047579498381</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030012974380155</v>
+        <v>1.03063728386798</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024966361641351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026272941132892</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018211829363469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9771740480496446</v>
+        <v>0.9793512610926849</v>
       </c>
       <c r="D13">
-        <v>1.005056403652254</v>
+        <v>1.006834378509386</v>
       </c>
       <c r="E13">
-        <v>1.004257594888365</v>
+        <v>1.004940434509953</v>
       </c>
       <c r="F13">
-        <v>1.012570406454609</v>
+        <v>1.01333810186638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038591672883485</v>
+        <v>1.039355147909051</v>
       </c>
       <c r="J13">
-        <v>1.007880590022817</v>
+        <v>1.009960047229012</v>
       </c>
       <c r="K13">
-        <v>1.020043657209821</v>
+        <v>1.021788205420171</v>
       </c>
       <c r="L13">
-        <v>1.019259916729223</v>
+        <v>1.019929873702774</v>
       </c>
       <c r="M13">
-        <v>1.027417436858303</v>
+        <v>1.028170958451708</v>
       </c>
       <c r="N13">
-        <v>1.006288216031841</v>
+        <v>1.010206979790878</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031371146873058</v>
+        <v>1.031966816814921</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025310501510736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026559535887322</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018324242891488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9783556413635961</v>
+        <v>0.9804041324932374</v>
       </c>
       <c r="D14">
-        <v>1.005839277060099</v>
+        <v>1.007497564530456</v>
       </c>
       <c r="E14">
-        <v>1.005702548398033</v>
+        <v>1.006331075008523</v>
       </c>
       <c r="F14">
-        <v>1.013956801024464</v>
+        <v>1.014674172632244</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038856438978269</v>
+        <v>1.03956660703502</v>
       </c>
       <c r="J14">
-        <v>1.008694405838479</v>
+        <v>1.010652328027994</v>
       </c>
       <c r="K14">
-        <v>1.020668732489914</v>
+        <v>1.022296244702947</v>
       </c>
       <c r="L14">
-        <v>1.020534547209198</v>
+        <v>1.021151389628032</v>
       </c>
       <c r="M14">
-        <v>1.028636856610244</v>
+        <v>1.029341174846998</v>
       </c>
       <c r="N14">
-        <v>1.006597093905079</v>
+        <v>1.010341360826515</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032509411643751</v>
+        <v>1.033066109994046</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025753904585516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02692031722328</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018448731291831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9789561843603531</v>
+        <v>0.9809404744336018</v>
       </c>
       <c r="D15">
-        <v>1.006229873333319</v>
+        <v>1.007829456170224</v>
       </c>
       <c r="E15">
-        <v>1.006284507884677</v>
+        <v>1.006889046135466</v>
       </c>
       <c r="F15">
-        <v>1.014509425808576</v>
+        <v>1.015202802855556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038978450881831</v>
+        <v>1.039662959481683</v>
       </c>
       <c r="J15">
-        <v>1.009074826289256</v>
+        <v>1.010972189435261</v>
       </c>
       <c r="K15">
-        <v>1.020963971884753</v>
+        <v>1.02253409988478</v>
       </c>
       <c r="L15">
-        <v>1.02101759837838</v>
+        <v>1.021610991857681</v>
       </c>
       <c r="M15">
-        <v>1.029092369209923</v>
+        <v>1.02977323309407</v>
       </c>
       <c r="N15">
-        <v>1.006735238529363</v>
+        <v>1.01039035190963</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032907172871447</v>
+        <v>1.03344531856488</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025968599592793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027095001214446</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018503397480933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.98193525305755</v>
+        <v>0.9836224129230767</v>
       </c>
       <c r="D16">
-        <v>1.008115185172154</v>
+        <v>1.009444643028099</v>
       </c>
       <c r="E16">
-        <v>1.008558879111224</v>
+        <v>1.009066041029304</v>
       </c>
       <c r="F16">
-        <v>1.016643736494223</v>
+        <v>1.017230989830786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039511921947506</v>
+        <v>1.040081122463397</v>
       </c>
       <c r="J16">
-        <v>1.010805249573467</v>
+        <v>1.012422313221689</v>
       </c>
       <c r="K16">
-        <v>1.022303195260551</v>
+        <v>1.023609256891231</v>
       </c>
       <c r="L16">
-        <v>1.02273907204176</v>
+        <v>1.023237309513964</v>
       </c>
       <c r="M16">
-        <v>1.030683032921932</v>
+        <v>1.031260164889207</v>
       </c>
       <c r="N16">
-        <v>1.007326123723765</v>
+        <v>1.01056951357412</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034125517671307</v>
+        <v>1.034581688372615</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.026918703442405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.0278586870196</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018729586055745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9836053058794617</v>
+        <v>0.98514658679279</v>
       </c>
       <c r="D17">
-        <v>1.009155020974462</v>
+        <v>1.010350340429976</v>
       </c>
       <c r="E17">
-        <v>1.009551375622094</v>
+        <v>1.010016341195463</v>
       </c>
       <c r="F17">
-        <v>1.017553741984935</v>
+        <v>1.018090905866448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039780943108384</v>
+        <v>1.040294091086045</v>
       </c>
       <c r="J17">
-        <v>1.011708420731234</v>
+        <v>1.013187774086588</v>
       </c>
       <c r="K17">
-        <v>1.023004411311508</v>
+        <v>1.024179292279211</v>
       </c>
       <c r="L17">
-        <v>1.023393981853797</v>
+        <v>1.023850997727792</v>
       </c>
       <c r="M17">
-        <v>1.031260835052934</v>
+        <v>1.031789000866124</v>
       </c>
       <c r="N17">
-        <v>1.007618219444373</v>
+        <v>1.010668514771786</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034452536371151</v>
+        <v>1.034870045710031</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027417117748803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028264592646949</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018840522983464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9842900516496583</v>
+        <v>0.9857848261556592</v>
       </c>
       <c r="D18">
-        <v>1.009546549459659</v>
+        <v>1.01069988144118</v>
       </c>
       <c r="E18">
-        <v>1.009450195351981</v>
+        <v>1.009909057072677</v>
       </c>
       <c r="F18">
-        <v>1.017403961922308</v>
+        <v>1.017927945615628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039840819825937</v>
+        <v>1.040338152324263</v>
       </c>
       <c r="J18">
-        <v>1.011959987577488</v>
+        <v>1.013395835135768</v>
       </c>
       <c r="K18">
-        <v>1.023202506849499</v>
+        <v>1.024336442052374</v>
       </c>
       <c r="L18">
-        <v>1.023107775816128</v>
+        <v>1.023558911639802</v>
       </c>
       <c r="M18">
-        <v>1.030928893596517</v>
+        <v>1.031444232201969</v>
       </c>
       <c r="N18">
-        <v>1.007670197875074</v>
+        <v>1.010659104748504</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033951020093099</v>
+        <v>1.034358475422626</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027545405530057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028362801091243</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01885316175618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9841116631661354</v>
+        <v>0.9856359167026979</v>
       </c>
       <c r="D19">
-        <v>1.009384606227876</v>
+        <v>1.010568521011161</v>
       </c>
       <c r="E19">
-        <v>1.008360835663367</v>
+        <v>1.008840685830924</v>
       </c>
       <c r="F19">
-        <v>1.016290045300562</v>
+        <v>1.016828908586055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039729658700411</v>
+        <v>1.040242447998346</v>
       </c>
       <c r="J19">
-        <v>1.011650422444078</v>
+        <v>1.013114911724349</v>
       </c>
       <c r="K19">
-        <v>1.022979606509646</v>
+        <v>1.024143709350726</v>
       </c>
       <c r="L19">
-        <v>1.021973016354719</v>
+        <v>1.022444808317646</v>
       </c>
       <c r="M19">
-        <v>1.029770325068269</v>
+        <v>1.030300320482094</v>
       </c>
       <c r="N19">
-        <v>1.007521903529227</v>
+        <v>1.01054162466008</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032707006022733</v>
+        <v>1.033126188655139</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027394276400152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028233624481926</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018785296945052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9814803209333319</v>
+        <v>0.9832453221158888</v>
       </c>
       <c r="D20">
-        <v>1.007630241064941</v>
+        <v>1.009047476290743</v>
       </c>
       <c r="E20">
-        <v>1.004558514048837</v>
+        <v>1.005138266319639</v>
       </c>
       <c r="F20">
-        <v>1.012554219374182</v>
+        <v>1.013187608171917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.03912241254408</v>
+        <v>1.039738579964052</v>
       </c>
       <c r="J20">
-        <v>1.009744296294497</v>
+        <v>1.011437744579004</v>
       </c>
       <c r="K20">
-        <v>1.021540235785024</v>
+        <v>1.022933080696342</v>
       </c>
       <c r="L20">
-        <v>1.018521678297442</v>
+        <v>1.019091363248489</v>
       </c>
       <c r="M20">
-        <v>1.026379852468849</v>
+        <v>1.027002466381163</v>
       </c>
       <c r="N20">
-        <v>1.006799295955501</v>
+        <v>1.010101319479003</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029491527198775</v>
+        <v>1.029984266900874</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026380537822119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02738201420906</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018480788365194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9757398474792565</v>
+        <v>0.9780992541500931</v>
       </c>
       <c r="D21">
-        <v>1.003969149492332</v>
+        <v>1.005929565556134</v>
       </c>
       <c r="E21">
-        <v>0.9996350768839281</v>
+        <v>1.000440149289492</v>
       </c>
       <c r="F21">
-        <v>1.007939630657971</v>
+        <v>1.008796574072813</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.03804926243981</v>
+        <v>1.03890125016565</v>
       </c>
       <c r="J21">
-        <v>1.006288098398401</v>
+        <v>1.00854205791969</v>
       </c>
       <c r="K21">
-        <v>1.018875713285297</v>
+        <v>1.02079946459917</v>
       </c>
       <c r="L21">
-        <v>1.014623366145425</v>
+        <v>1.015413187703268</v>
       </c>
       <c r="M21">
-        <v>1.02277212951819</v>
+        <v>1.023613187338375</v>
       </c>
       <c r="N21">
-        <v>1.005593378276834</v>
+        <v>1.0097336897932</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026594866581128</v>
+        <v>1.027260520305372</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024499855607687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025877050181564</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018019421669016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9720741248043829</v>
+        <v>0.9748152472040224</v>
       </c>
       <c r="D22">
-        <v>1.001633848922308</v>
+        <v>1.003943742679725</v>
       </c>
       <c r="E22">
-        <v>0.9965931550194462</v>
+        <v>0.9975473689717436</v>
       </c>
       <c r="F22">
-        <v>1.005100015641412</v>
+        <v>1.006101941635097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037354526484919</v>
+        <v>1.038358536062511</v>
       </c>
       <c r="J22">
-        <v>1.004090899490639</v>
+        <v>1.006702050608123</v>
       </c>
       <c r="K22">
-        <v>1.017173008283069</v>
+        <v>1.019437476017446</v>
       </c>
       <c r="L22">
-        <v>1.012232405640707</v>
+        <v>1.013167570043493</v>
       </c>
       <c r="M22">
-        <v>1.020571112766342</v>
+        <v>1.021553479362091</v>
       </c>
       <c r="N22">
-        <v>1.004827018837755</v>
+        <v>1.009494400547838</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024852872699711</v>
+        <v>1.02563036692218</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023282244806311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024899068687196</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017723195188093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9740121155567967</v>
+        <v>0.9765318623381238</v>
       </c>
       <c r="D23">
-        <v>1.002860840689778</v>
+        <v>1.004970899544436</v>
       </c>
       <c r="E23">
-        <v>0.9982044171805443</v>
+        <v>0.9990695751213472</v>
       </c>
       <c r="F23">
-        <v>1.006604690036993</v>
+        <v>1.007521844944577</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037717762502955</v>
+        <v>1.038634506941258</v>
       </c>
       <c r="J23">
-        <v>1.005247724997312</v>
+        <v>1.00765165552009</v>
       </c>
       <c r="K23">
-        <v>1.018064333090956</v>
+        <v>1.020133976247722</v>
       </c>
       <c r="L23">
-        <v>1.013497890617123</v>
+        <v>1.014346247027341</v>
       </c>
       <c r="M23">
-        <v>1.021736625619938</v>
+        <v>1.022636356823559</v>
       </c>
       <c r="N23">
-        <v>1.005228193852907</v>
+        <v>1.009571183788044</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025775317963517</v>
+        <v>1.026487409461489</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023902690747058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025380823447698</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017871801070541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9814775703756435</v>
+        <v>0.9832446645109275</v>
       </c>
       <c r="D24">
-        <v>1.007611262294067</v>
+        <v>1.009030687522237</v>
       </c>
       <c r="E24">
-        <v>1.004434564094727</v>
+        <v>1.00501661155902</v>
       </c>
       <c r="F24">
-        <v>1.012424553000428</v>
+        <v>1.013059449206768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039103806910784</v>
+        <v>1.039721421112165</v>
       </c>
       <c r="J24">
-        <v>1.00970775335838</v>
+        <v>1.011403310510175</v>
       </c>
       <c r="K24">
-        <v>1.021506021165448</v>
+        <v>1.022901048692395</v>
       </c>
       <c r="L24">
-        <v>1.018384248807976</v>
+        <v>1.01895619891743</v>
       </c>
       <c r="M24">
-        <v>1.026236937030923</v>
+        <v>1.026861043037051</v>
       </c>
       <c r="N24">
-        <v>1.006778451461127</v>
+        <v>1.010081973619446</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029337078219284</v>
+        <v>1.029831023909918</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026328587290809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027328953531238</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018468004570684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9897812397682425</v>
+        <v>0.9909802569269205</v>
       </c>
       <c r="D25">
-        <v>1.012916575672045</v>
+        <v>1.013767594357305</v>
       </c>
       <c r="E25">
-        <v>1.011422994208456</v>
+        <v>1.011822003191816</v>
       </c>
       <c r="F25">
-        <v>1.018958985107337</v>
+        <v>1.019390982808596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040599483356624</v>
+        <v>1.040976471804133</v>
       </c>
       <c r="J25">
-        <v>1.014657468697168</v>
+        <v>1.015815031498537</v>
       </c>
       <c r="K25">
-        <v>1.025317633678291</v>
+        <v>1.026155880503648</v>
       </c>
       <c r="L25">
-        <v>1.02384653365343</v>
+        <v>1.024239528467267</v>
       </c>
       <c r="M25">
-        <v>1.031269947379246</v>
+        <v>1.031695555732208</v>
       </c>
       <c r="N25">
-        <v>1.008497912093325</v>
+        <v>1.011247329563858</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033320420012791</v>
+        <v>1.033657263806735</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029020755616473</v>
+        <v>1.029627116207757</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019176859130816</v>
       </c>
     </row>
   </sheetData>
